--- a/DataValueClustering/experiments/exports/study/xlido_measurement_unit_0_1000000_hierarchical_20210401-161533.xlsx
+++ b/DataValueClustering/experiments/exports/study/xlido_measurement_unit_0_1000000_hierarchical_20210401-161533.xlsx
@@ -1,22 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23929"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Arbeit\SourceTree\data-value-clustering\DataValueClustering\experiments\exports\study\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B83F2A1-9347-42E6-AAE4-459E5E94EF63}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cluster_Original" sheetId="1" r:id="rId1"/>
     <sheet name="Cluster_Repr" sheetId="2" r:id="rId2"/>
     <sheet name="Cluster_Repr_Dists" sheetId="3" r:id="rId3"/>
+    <sheet name="Feld Dokumentation Lido 1.0" sheetId="4" r:id="rId4"/>
+    <sheet name="Feld Dokumentation Lido 1.1" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="193">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="367" uniqueCount="256">
   <si>
     <t>#original</t>
   </si>
@@ -595,13 +603,202 @@
   </si>
   <si>
     <t>#variance</t>
+  </si>
+  <si>
+    <t>Beispiel:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HTML Ansicht </t>
+  </si>
+  <si>
+    <t>&lt;/lido:objectMeasurementsWrap&gt;</t>
+  </si>
+  <si>
+    <t>&lt;lido:objectMeasurementsWrap&gt;</t>
+  </si>
+  <si>
+    <t>&lt;lido:objectMeasurementsSet&gt;</t>
+  </si>
+  <si>
+    <t>&lt;lido:displayObjectMeasurements&gt;Höhe x Breite: 130 x 110 cm&lt;/lido:displayObjectMeasurements&gt;</t>
+  </si>
+  <si>
+    <t>&lt;lido:objectMeasurements&gt;</t>
+  </si>
+  <si>
+    <t>&lt;lido:measurementsSet&gt;</t>
+  </si>
+  <si>
+    <t>&lt;lido:measurementType&gt;Höhe x Breite&lt;/lido:measurementType&gt;</t>
+  </si>
+  <si>
+    <t>&lt;lido:measurementUnit&gt;cm&lt;/lido:measurementUnit&gt;</t>
+  </si>
+  <si>
+    <t>&lt;lido:measurementValue&gt;130 x 110&lt;/lido:measurementValue&gt;</t>
+  </si>
+  <si>
+    <t>&lt;/lido:measurementsSet&gt;</t>
+  </si>
+  <si>
+    <t>&lt;/lido:objectMeasurements&gt;</t>
+  </si>
+  <si>
+    <t>&lt;/lido:objectMeasurementsSet&gt;</t>
+  </si>
+  <si>
+    <t>Auszug aus XSD</t>
+  </si>
+  <si>
+    <t>&lt;/xs:complexType&gt;</t>
+  </si>
+  <si>
+    <t>&lt;xs:annotation&gt;</t>
+  </si>
+  <si>
+    <t>&lt;xs:documentation&gt;Definition: The dimensions or other measurements for one aspect of the item.&lt;/xs:documentation&gt;</t>
+  </si>
+  <si>
+    <t>&lt;/xs:annotation&gt;</t>
+  </si>
+  <si>
+    <t>&lt;xs:sequence&gt;</t>
+  </si>
+  <si>
+    <t>&lt;xs:element name="measurementType" type="lido:textComplexType" maxOccurs="unbounded"&gt;</t>
+  </si>
+  <si>
+    <t>…</t>
+  </si>
+  <si>
+    <t>&lt;/xs:element&gt;</t>
+  </si>
+  <si>
+    <t>&lt;xs:element name="measurementUnit" type="lido:textComplexType" maxOccurs="unbounded"&gt;</t>
+  </si>
+  <si>
+    <t>&lt;xs:documentation&gt;Definition: The unit of the measurement.&lt;/xs:documentation&gt;</t>
+  </si>
+  <si>
+    <t>&lt;xs:documentation&gt;How to record: E.g. cm, mm, m, g, kg, kb, Mb or Gb.Repeat this element only for language variants.&lt;/xs:documentation&gt;</t>
+  </si>
+  <si>
+    <t>&lt;xs:element name="measurementValue" type="lido:textComplexType"&gt;</t>
+  </si>
+  <si>
+    <t>&lt;/xs:sequence&gt;</t>
+  </si>
+  <si>
+    <t>&lt;xs:complexType name="measurementsSetComplexType" id="measurementsSetComplexType"&gt;</t>
+  </si>
+  <si>
+    <t>&lt;xs:documentation&gt;</t>
+  </si>
+  <si>
+    <t>&lt;tei:ab type="description"&gt;The dimensions or other measurements for one aspect of the item.&lt;/tei:ab&gt;</t>
+  </si>
+  <si>
+    <t>&lt;tei:ab type="equivalents"&gt;</t>
+  </si>
+  <si>
+    <t>&lt;tei:list&gt;</t>
+  </si>
+  <si>
+    <t>&lt;tei:label&gt;CDWA Lite&lt;/tei:label&gt;</t>
+  </si>
+  <si>
+    <t>&lt;tei:item&gt;measurementsSet [attributes type, uni, value become sub-elements]&lt;/tei:item&gt;</t>
+  </si>
+  <si>
+    <t>&lt;tei:label&gt;museumdat&lt;/tei:label&gt;</t>
+  </si>
+  <si>
+    <t>&lt;tei:label&gt;SPECTRUM&lt;/tei:label&gt;</t>
+  </si>
+  <si>
+    <t>&lt;tei:item&gt;[none]&lt;/tei:item&gt;</t>
+  </si>
+  <si>
+    <t>&lt;tei:label&gt;CIDOC CRM&lt;/tei:label&gt;</t>
+  </si>
+  <si>
+    <t>&lt;/tei:list&gt;</t>
+  </si>
+  <si>
+    <t>&lt;/tei:ab&gt;</t>
+  </si>
+  <si>
+    <t>&lt;tei:ab type="furtherReading"&gt;</t>
+  </si>
+  <si>
+    <t>&lt;tei:ref target="https://www.getty.edu/research/publications/electronic_publications/cdwa/7measurements.html"&gt;CDWA Full 6. Measurements&lt;/tei:ref&gt;</t>
+  </si>
+  <si>
+    <t>&lt;/xs:documentation&gt;</t>
+  </si>
+  <si>
+    <t>&lt;!-- Mixed Content with skos:Concept --&gt;</t>
+  </si>
+  <si>
+    <t>&lt;xs:element name="measurementType" type="lido:conceptMixedComplexType" maxOccurs="unbounded" id="measurementType"&gt;</t>
+  </si>
+  <si>
+    <t>&lt;xs:appinfo&gt;</t>
+  </si>
+  <si>
+    <t>&lt;sch:pattern&gt;</t>
+  </si>
+  <si>
+    <t>&lt;sch:extends rule="MixedContent"/&gt;</t>
+  </si>
+  <si>
+    <t>&lt;/sch:rule&gt;</t>
+  </si>
+  <si>
+    <t>&lt;/sch:pattern&gt;</t>
+  </si>
+  <si>
+    <t>&lt;sch:extends rule="SKOS"/&gt;</t>
+  </si>
+  <si>
+    <t>&lt;/xs:appinfo&gt;</t>
+  </si>
+  <si>
+    <t>&lt;xs:element name="measurementUnit" type="lido:conceptMixedComplexType" maxOccurs="unbounded" id="measurementUnit"&gt;</t>
+  </si>
+  <si>
+    <t>&lt;tei:ab type="description"&gt;The unit of the measurement.&lt;/tei:ab&gt;</t>
+  </si>
+  <si>
+    <t>&lt;tei:ab type="howToRecord"&gt;E.g. cm, mm, m, g, kg, kb, Mb or Gb. Repeat this element only for language variants.&lt;/tei:ab&gt;</t>
+  </si>
+  <si>
+    <t>&lt;tei:ab type="title"&gt;Measurement Unit&lt;/tei:ab&gt;</t>
+  </si>
+  <si>
+    <t>&lt;tei:item&gt;measurementsSet@unit&lt;/tei:item&gt;</t>
+  </si>
+  <si>
+    <t>&lt;tei:item&gt;Dimension measurement unit&lt;/tei:item&gt;</t>
+  </si>
+  <si>
+    <t>&lt;tei:ref target="https://www.getty.edu/research/publications/electronic_publications/cdwa/7measurements.html#unit"&gt;CDWA Full 6.4. Dimensions Unit&lt;/tei:ref&gt;</t>
+  </si>
+  <si>
+    <t>&lt;tei:ab type="dataValues"&gt;Controlled. Recommended: Published vocabulary. Use, for instance, concepts from the AAT subordinate to&lt;tei:ref target="http://vocab.getty.edu/hier/aat/300379096"&gt;size/dimensions by unit&lt;/tei:ref&gt;</t>
+  </si>
+  <si>
+    <t>&lt;sch:rule context="lido:measurementUnit"&gt;</t>
+  </si>
+  <si>
+    <t>&lt;xs:element name="measurementValue" type="lido:textComplexType" id="measurementValue"&gt;</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -625,6 +822,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -640,7 +845,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -697,11 +902,119 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -710,17 +1023,280 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>665053</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>171099</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Grafik 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B4FC955A-BCD0-4496-A164-D3D0116F2A85}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="809625" y="600075"/>
+          <a:ext cx="13571428" cy="2809524"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>284286</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>103881</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Grafik 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8FD28F0D-A167-4B0C-AAD6-D6039B88E24F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="762000" y="952500"/>
+          <a:ext cx="11714286" cy="7152381"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -762,7 +1338,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -794,9 +1370,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -828,6 +1422,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1003,12 +1615,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:W146"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D40" sqref="D40"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.7109375" customWidth="1"/>
     <col min="2" max="2" width="15.7109375" customWidth="1"/>
@@ -1035,7 +1649,7 @@
     <col min="23" max="23" width="6.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:23">
+    <row r="2" spans="1:23" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
       <c r="B2" s="2" t="s">
         <v>1</v>
@@ -1082,7 +1696,7 @@
       </c>
       <c r="W2" s="3"/>
     </row>
-    <row r="3" spans="1:23">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>0</v>
       </c>
@@ -1131,7 +1745,7 @@
       </c>
       <c r="W3" s="3"/>
     </row>
-    <row r="4" spans="1:23">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
       <c r="D4" s="5" t="s">
         <v>3</v>
       </c>
@@ -1193,7 +1807,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:23">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
       <c r="D5" s="5" t="s">
         <v>4</v>
       </c>
@@ -1225,7 +1839,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:23">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
       <c r="D6" s="5" t="s">
         <v>5</v>
       </c>
@@ -1257,7 +1871,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:23">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
       <c r="H7" s="5" t="s">
         <v>12</v>
       </c>
@@ -1283,7 +1897,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:23">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
       <c r="H8" s="5" t="s">
         <v>13</v>
       </c>
@@ -1309,7 +1923,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:23">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
       <c r="H9" s="5" t="s">
         <v>14</v>
       </c>
@@ -1335,7 +1949,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:23">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
       <c r="H10" s="5" t="s">
         <v>15</v>
       </c>
@@ -1355,7 +1969,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:23">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
       <c r="H11" s="5" t="s">
         <v>16</v>
       </c>
@@ -1375,7 +1989,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:23">
+    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
       <c r="H12" s="5" t="s">
         <v>17</v>
       </c>
@@ -1389,7 +2003,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:23">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
       <c r="H13" s="5" t="s">
         <v>18</v>
       </c>
@@ -1403,7 +2017,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:23">
+    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
       <c r="H14" s="5" t="s">
         <v>19</v>
       </c>
@@ -1417,7 +2031,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:23">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
       <c r="H15" s="5" t="s">
         <v>20</v>
       </c>
@@ -1431,7 +2045,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:23">
+    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
       <c r="H16" s="5" t="s">
         <v>21</v>
       </c>
@@ -1445,7 +2059,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="8:13">
+    <row r="17" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H17" s="5" t="s">
         <v>22</v>
       </c>
@@ -1459,7 +2073,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="8:13">
+    <row r="18" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H18" s="5" t="s">
         <v>23</v>
       </c>
@@ -1467,7 +2081,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="19" spans="8:13">
+    <row r="19" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H19" s="5" t="s">
         <v>24</v>
       </c>
@@ -1475,7 +2089,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="20" spans="8:13">
+    <row r="20" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H20" s="5" t="s">
         <v>25</v>
       </c>
@@ -1483,7 +2097,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="21" spans="8:13">
+    <row r="21" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H21" s="5" t="s">
         <v>26</v>
       </c>
@@ -1491,7 +2105,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="22" spans="8:13">
+    <row r="22" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H22" s="5" t="s">
         <v>27</v>
       </c>
@@ -1499,7 +2113,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="23" spans="8:13">
+    <row r="23" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H23" s="5" t="s">
         <v>28</v>
       </c>
@@ -1507,7 +2121,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="24" spans="8:13">
+    <row r="24" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H24" s="5" t="s">
         <v>29</v>
       </c>
@@ -1515,7 +2129,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="25" spans="8:13">
+    <row r="25" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H25" s="5" t="s">
         <v>30</v>
       </c>
@@ -1523,7 +2137,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="26" spans="8:13">
+    <row r="26" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H26" s="5" t="s">
         <v>31</v>
       </c>
@@ -1531,7 +2145,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="27" spans="8:13">
+    <row r="27" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H27" s="5" t="s">
         <v>32</v>
       </c>
@@ -1539,7 +2153,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="28" spans="8:13">
+    <row r="28" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H28" s="5" t="s">
         <v>33</v>
       </c>
@@ -1547,7 +2161,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="29" spans="8:13">
+    <row r="29" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H29" s="5" t="s">
         <v>34</v>
       </c>
@@ -1555,7 +2169,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="30" spans="8:13">
+    <row r="30" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H30" s="5" t="s">
         <v>35</v>
       </c>
@@ -1563,7 +2177,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="31" spans="8:13">
+    <row r="31" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H31" s="5" t="s">
         <v>36</v>
       </c>
@@ -1571,7 +2185,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="32" spans="8:13">
+    <row r="32" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H32" s="5" t="s">
         <v>37</v>
       </c>
@@ -1579,7 +2193,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="33" spans="8:9">
+    <row r="33" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H33" s="5" t="s">
         <v>38</v>
       </c>
@@ -1587,7 +2201,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="34" spans="8:9">
+    <row r="34" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H34" s="5" t="s">
         <v>39</v>
       </c>
@@ -1595,7 +2209,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="35" spans="8:9">
+    <row r="35" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H35" s="5" t="s">
         <v>40</v>
       </c>
@@ -1603,7 +2217,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="36" spans="8:9">
+    <row r="36" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H36" s="5" t="s">
         <v>41</v>
       </c>
@@ -1611,7 +2225,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="37" spans="8:9">
+    <row r="37" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H37" s="5" t="s">
         <v>42</v>
       </c>
@@ -1619,7 +2233,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="38" spans="8:9">
+    <row r="38" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H38" s="5" t="s">
         <v>43</v>
       </c>
@@ -1627,7 +2241,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="39" spans="8:9">
+    <row r="39" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H39" s="5" t="s">
         <v>44</v>
       </c>
@@ -1635,7 +2249,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="40" spans="8:9">
+    <row r="40" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H40" s="5" t="s">
         <v>45</v>
       </c>
@@ -1643,7 +2257,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="41" spans="8:9">
+    <row r="41" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H41" s="5" t="s">
         <v>46</v>
       </c>
@@ -1651,7 +2265,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="42" spans="8:9">
+    <row r="42" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H42" s="5" t="s">
         <v>47</v>
       </c>
@@ -1659,7 +2273,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="43" spans="8:9">
+    <row r="43" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H43" s="5" t="s">
         <v>48</v>
       </c>
@@ -1667,7 +2281,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="44" spans="8:9">
+    <row r="44" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H44" s="5" t="s">
         <v>49</v>
       </c>
@@ -1675,7 +2289,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="45" spans="8:9">
+    <row r="45" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H45" s="5" t="s">
         <v>50</v>
       </c>
@@ -1683,7 +2297,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="46" spans="8:9">
+    <row r="46" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H46" s="5" t="s">
         <v>51</v>
       </c>
@@ -1691,7 +2305,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="47" spans="8:9">
+    <row r="47" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H47" s="5" t="s">
         <v>52</v>
       </c>
@@ -1699,7 +2313,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="48" spans="8:9">
+    <row r="48" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H48" s="5" t="s">
         <v>53</v>
       </c>
@@ -1707,7 +2321,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="49" spans="8:9">
+    <row r="49" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H49" s="5" t="s">
         <v>54</v>
       </c>
@@ -1715,7 +2329,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="50" spans="8:9">
+    <row r="50" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H50" s="5" t="s">
         <v>55</v>
       </c>
@@ -1723,7 +2337,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="51" spans="8:9">
+    <row r="51" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H51" s="5" t="s">
         <v>56</v>
       </c>
@@ -1731,7 +2345,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="52" spans="8:9">
+    <row r="52" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H52" s="5" t="s">
         <v>57</v>
       </c>
@@ -1739,7 +2353,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="53" spans="8:9">
+    <row r="53" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H53" s="5" t="s">
         <v>58</v>
       </c>
@@ -1747,7 +2361,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="54" spans="8:9">
+    <row r="54" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H54" s="5" t="s">
         <v>59</v>
       </c>
@@ -1755,7 +2369,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="55" spans="8:9">
+    <row r="55" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H55" s="5" t="s">
         <v>60</v>
       </c>
@@ -1763,7 +2377,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="56" spans="8:9">
+    <row r="56" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H56" s="5" t="s">
         <v>61</v>
       </c>
@@ -1771,7 +2385,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="57" spans="8:9">
+    <row r="57" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H57" s="5" t="s">
         <v>62</v>
       </c>
@@ -1779,7 +2393,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="58" spans="8:9">
+    <row r="58" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H58" s="5" t="s">
         <v>63</v>
       </c>
@@ -1787,7 +2401,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="59" spans="8:9">
+    <row r="59" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H59" s="5" t="s">
         <v>64</v>
       </c>
@@ -1795,7 +2409,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="60" spans="8:9">
+    <row r="60" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H60" s="5" t="s">
         <v>65</v>
       </c>
@@ -1803,7 +2417,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="61" spans="8:9">
+    <row r="61" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H61" s="5" t="s">
         <v>66</v>
       </c>
@@ -1811,7 +2425,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="62" spans="8:9">
+    <row r="62" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H62" s="5" t="s">
         <v>67</v>
       </c>
@@ -1819,7 +2433,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="63" spans="8:9">
+    <row r="63" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H63" s="5" t="s">
         <v>68</v>
       </c>
@@ -1827,7 +2441,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="64" spans="8:9">
+    <row r="64" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H64" s="5" t="s">
         <v>69</v>
       </c>
@@ -1835,7 +2449,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="65" spans="8:9">
+    <row r="65" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H65" s="5" t="s">
         <v>70</v>
       </c>
@@ -1843,7 +2457,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="66" spans="8:9">
+    <row r="66" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H66" s="5" t="s">
         <v>71</v>
       </c>
@@ -1851,7 +2465,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="67" spans="8:9">
+    <row r="67" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H67" s="5" t="s">
         <v>72</v>
       </c>
@@ -1859,7 +2473,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="68" spans="8:9">
+    <row r="68" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H68" s="5" t="s">
         <v>73</v>
       </c>
@@ -1867,7 +2481,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="69" spans="8:9">
+    <row r="69" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H69" s="5" t="s">
         <v>74</v>
       </c>
@@ -1875,7 +2489,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="70" spans="8:9">
+    <row r="70" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H70" s="5" t="s">
         <v>75</v>
       </c>
@@ -1883,7 +2497,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="71" spans="8:9">
+    <row r="71" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H71" s="5" t="s">
         <v>76</v>
       </c>
@@ -1891,7 +2505,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="72" spans="8:9">
+    <row r="72" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H72" s="5" t="s">
         <v>77</v>
       </c>
@@ -1899,7 +2513,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="73" spans="8:9">
+    <row r="73" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H73" s="5" t="s">
         <v>78</v>
       </c>
@@ -1907,7 +2521,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="74" spans="8:9">
+    <row r="74" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H74" s="5" t="s">
         <v>79</v>
       </c>
@@ -1915,7 +2529,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="75" spans="8:9">
+    <row r="75" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H75" s="5" t="s">
         <v>80</v>
       </c>
@@ -1923,7 +2537,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="76" spans="8:9">
+    <row r="76" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H76" s="5" t="s">
         <v>81</v>
       </c>
@@ -1931,7 +2545,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="77" spans="8:9">
+    <row r="77" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H77" s="5" t="s">
         <v>82</v>
       </c>
@@ -1939,7 +2553,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="78" spans="8:9">
+    <row r="78" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H78" s="5" t="s">
         <v>83</v>
       </c>
@@ -1947,7 +2561,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="79" spans="8:9">
+    <row r="79" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H79" s="5" t="s">
         <v>84</v>
       </c>
@@ -1955,7 +2569,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="80" spans="8:9">
+    <row r="80" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H80" s="5" t="s">
         <v>85</v>
       </c>
@@ -1963,7 +2577,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="81" spans="8:9">
+    <row r="81" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H81" s="5" t="s">
         <v>86</v>
       </c>
@@ -1971,7 +2585,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="82" spans="8:9">
+    <row r="82" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H82" s="5" t="s">
         <v>87</v>
       </c>
@@ -1979,7 +2593,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="83" spans="8:9">
+    <row r="83" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H83" s="5" t="s">
         <v>88</v>
       </c>
@@ -1987,7 +2601,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="84" spans="8:9">
+    <row r="84" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H84" s="5" t="s">
         <v>89</v>
       </c>
@@ -1995,7 +2609,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="85" spans="8:9">
+    <row r="85" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H85" s="5" t="s">
         <v>90</v>
       </c>
@@ -2003,7 +2617,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="86" spans="8:9">
+    <row r="86" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H86" s="5" t="s">
         <v>91</v>
       </c>
@@ -2011,7 +2625,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="87" spans="8:9">
+    <row r="87" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H87" s="5" t="s">
         <v>92</v>
       </c>
@@ -2019,7 +2633,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="88" spans="8:9">
+    <row r="88" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H88" s="5" t="s">
         <v>93</v>
       </c>
@@ -2027,7 +2641,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="89" spans="8:9">
+    <row r="89" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H89" s="5" t="s">
         <v>94</v>
       </c>
@@ -2035,7 +2649,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="90" spans="8:9">
+    <row r="90" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H90" s="5" t="s">
         <v>95</v>
       </c>
@@ -2043,7 +2657,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="91" spans="8:9">
+    <row r="91" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H91" s="5" t="s">
         <v>96</v>
       </c>
@@ -2051,7 +2665,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="92" spans="8:9">
+    <row r="92" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H92" s="5" t="s">
         <v>97</v>
       </c>
@@ -2059,7 +2673,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="93" spans="8:9">
+    <row r="93" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H93" s="5" t="s">
         <v>98</v>
       </c>
@@ -2067,7 +2681,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="94" spans="8:9">
+    <row r="94" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H94" s="5" t="s">
         <v>99</v>
       </c>
@@ -2075,7 +2689,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="95" spans="8:9">
+    <row r="95" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H95" s="5" t="s">
         <v>100</v>
       </c>
@@ -2083,7 +2697,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="96" spans="8:9">
+    <row r="96" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H96" s="5" t="s">
         <v>101</v>
       </c>
@@ -2091,7 +2705,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="97" spans="8:9">
+    <row r="97" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H97" s="5" t="s">
         <v>102</v>
       </c>
@@ -2099,7 +2713,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="98" spans="8:9">
+    <row r="98" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H98" s="5" t="s">
         <v>103</v>
       </c>
@@ -2107,7 +2721,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="8:9">
+    <row r="99" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H99" s="5" t="s">
         <v>104</v>
       </c>
@@ -2115,7 +2729,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="100" spans="8:9">
+    <row r="100" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H100" s="5" t="s">
         <v>105</v>
       </c>
@@ -2123,7 +2737,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="101" spans="8:9">
+    <row r="101" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H101" s="5" t="s">
         <v>106</v>
       </c>
@@ -2131,7 +2745,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="8:9">
+    <row r="102" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H102" s="5" t="s">
         <v>107</v>
       </c>
@@ -2139,7 +2753,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="103" spans="8:9">
+    <row r="103" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H103" s="5" t="s">
         <v>108</v>
       </c>
@@ -2147,7 +2761,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="104" spans="8:9">
+    <row r="104" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H104" s="5" t="s">
         <v>109</v>
       </c>
@@ -2155,7 +2769,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="105" spans="8:9">
+    <row r="105" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H105" s="5" t="s">
         <v>110</v>
       </c>
@@ -2163,7 +2777,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="106" spans="8:9">
+    <row r="106" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H106" s="5" t="s">
         <v>111</v>
       </c>
@@ -2171,7 +2785,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="107" spans="8:9">
+    <row r="107" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H107" s="5" t="s">
         <v>112</v>
       </c>
@@ -2179,7 +2793,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="108" spans="8:9">
+    <row r="108" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H108" s="5" t="s">
         <v>113</v>
       </c>
@@ -2187,7 +2801,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="109" spans="8:9">
+    <row r="109" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H109" s="5" t="s">
         <v>114</v>
       </c>
@@ -2195,7 +2809,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="110" spans="8:9">
+    <row r="110" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H110" s="5" t="s">
         <v>115</v>
       </c>
@@ -2203,7 +2817,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="111" spans="8:9">
+    <row r="111" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H111" s="5" t="s">
         <v>116</v>
       </c>
@@ -2211,7 +2825,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="112" spans="8:9">
+    <row r="112" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H112" s="5" t="s">
         <v>117</v>
       </c>
@@ -2219,7 +2833,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="113" spans="8:9">
+    <row r="113" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H113" s="5" t="s">
         <v>118</v>
       </c>
@@ -2227,7 +2841,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="114" spans="8:9">
+    <row r="114" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H114" s="5" t="s">
         <v>119</v>
       </c>
@@ -2235,7 +2849,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="115" spans="8:9">
+    <row r="115" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H115" s="5" t="s">
         <v>120</v>
       </c>
@@ -2243,7 +2857,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="116" spans="8:9">
+    <row r="116" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H116" s="5" t="s">
         <v>121</v>
       </c>
@@ -2251,7 +2865,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="117" spans="8:9">
+    <row r="117" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H117" s="5" t="s">
         <v>122</v>
       </c>
@@ -2259,7 +2873,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="118" spans="8:9">
+    <row r="118" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H118" s="5" t="s">
         <v>123</v>
       </c>
@@ -2267,7 +2881,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="119" spans="8:9">
+    <row r="119" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H119" s="5" t="s">
         <v>124</v>
       </c>
@@ -2275,7 +2889,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="120" spans="8:9">
+    <row r="120" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H120" s="5" t="s">
         <v>125</v>
       </c>
@@ -2283,7 +2897,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="121" spans="8:9">
+    <row r="121" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H121" s="5" t="s">
         <v>126</v>
       </c>
@@ -2291,7 +2905,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="122" spans="8:9">
+    <row r="122" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H122" s="5" t="s">
         <v>127</v>
       </c>
@@ -2299,7 +2913,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="123" spans="8:9">
+    <row r="123" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H123" s="5" t="s">
         <v>128</v>
       </c>
@@ -2307,7 +2921,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="124" spans="8:9">
+    <row r="124" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H124" s="5" t="s">
         <v>129</v>
       </c>
@@ -2315,7 +2929,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="125" spans="8:9">
+    <row r="125" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H125" s="5" t="s">
         <v>130</v>
       </c>
@@ -2323,7 +2937,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="126" spans="8:9">
+    <row r="126" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H126" s="5" t="s">
         <v>131</v>
       </c>
@@ -2331,7 +2945,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="127" spans="8:9">
+    <row r="127" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H127" s="5" t="s">
         <v>132</v>
       </c>
@@ -2339,7 +2953,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="128" spans="8:9">
+    <row r="128" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H128" s="5" t="s">
         <v>133</v>
       </c>
@@ -2347,7 +2961,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="129" spans="8:9">
+    <row r="129" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H129" s="5" t="s">
         <v>134</v>
       </c>
@@ -2355,7 +2969,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="130" spans="8:9">
+    <row r="130" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H130" s="5" t="s">
         <v>135</v>
       </c>
@@ -2363,7 +2977,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="131" spans="8:9">
+    <row r="131" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H131" s="5" t="s">
         <v>136</v>
       </c>
@@ -2371,7 +2985,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="132" spans="8:9">
+    <row r="132" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H132" s="5" t="s">
         <v>137</v>
       </c>
@@ -2379,7 +2993,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="133" spans="8:9">
+    <row r="133" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H133" s="5" t="s">
         <v>138</v>
       </c>
@@ -2387,7 +3001,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="134" spans="8:9">
+    <row r="134" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H134" s="5" t="s">
         <v>139</v>
       </c>
@@ -2395,7 +3009,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="135" spans="8:9">
+    <row r="135" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H135" s="5" t="s">
         <v>140</v>
       </c>
@@ -2403,7 +3017,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="136" spans="8:9">
+    <row r="136" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H136" s="5" t="s">
         <v>141</v>
       </c>
@@ -2411,7 +3025,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="137" spans="8:9">
+    <row r="137" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H137" s="5" t="s">
         <v>142</v>
       </c>
@@ -2419,7 +3033,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="138" spans="8:9">
+    <row r="138" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H138" s="5" t="s">
         <v>143</v>
       </c>
@@ -2427,7 +3041,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="139" spans="8:9">
+    <row r="139" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H139" s="5" t="s">
         <v>144</v>
       </c>
@@ -2435,7 +3049,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="140" spans="8:9">
+    <row r="140" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H140" s="5" t="s">
         <v>145</v>
       </c>
@@ -2443,7 +3057,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="141" spans="8:9">
+    <row r="141" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H141" s="5" t="s">
         <v>146</v>
       </c>
@@ -2451,7 +3065,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="142" spans="8:9">
+    <row r="142" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H142" s="5" t="s">
         <v>147</v>
       </c>
@@ -2459,7 +3073,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="143" spans="8:9">
+    <row r="143" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H143" s="5" t="s">
         <v>148</v>
       </c>
@@ -2467,7 +3081,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="144" spans="8:9">
+    <row r="144" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H144" s="5" t="s">
         <v>149</v>
       </c>
@@ -2475,7 +3089,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="145" spans="8:9">
+    <row r="145" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H145" s="5" t="s">
         <v>150</v>
       </c>
@@ -2483,7 +3097,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="146" spans="8:9">
+    <row r="146" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H146" s="5" t="s">
         <v>151</v>
       </c>
@@ -2495,8 +3109,8 @@
   <conditionalFormatting sqref="B3:X3">
     <cfRule type="dataBar" priority="12">
       <dataBar>
-        <cfvo type="min" val="0"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
         <color rgb="FF63C384"/>
       </dataBar>
     </cfRule>
@@ -2504,8 +3118,8 @@
   <conditionalFormatting sqref="C4">
     <cfRule type="dataBar" priority="1">
       <dataBar>
-        <cfvo type="min" val="0"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
         <color rgb="FF638EC6"/>
       </dataBar>
     </cfRule>
@@ -2513,8 +3127,8 @@
   <conditionalFormatting sqref="E4:E7">
     <cfRule type="dataBar" priority="2">
       <dataBar>
-        <cfvo type="min" val="0"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
         <color rgb="FF638EC6"/>
       </dataBar>
     </cfRule>
@@ -2522,8 +3136,8 @@
   <conditionalFormatting sqref="G4:G5">
     <cfRule type="dataBar" priority="3">
       <dataBar>
-        <cfvo type="min" val="0"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
         <color rgb="FF638EC6"/>
       </dataBar>
     </cfRule>
@@ -2531,8 +3145,8 @@
   <conditionalFormatting sqref="I4:I147">
     <cfRule type="dataBar" priority="4">
       <dataBar>
-        <cfvo type="min" val="0"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
         <color rgb="FF638EC6"/>
       </dataBar>
     </cfRule>
@@ -2540,8 +3154,8 @@
   <conditionalFormatting sqref="K4:K12">
     <cfRule type="dataBar" priority="5">
       <dataBar>
-        <cfvo type="min" val="0"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
         <color rgb="FF638EC6"/>
       </dataBar>
     </cfRule>
@@ -2549,8 +3163,8 @@
   <conditionalFormatting sqref="M4:M18">
     <cfRule type="dataBar" priority="6">
       <dataBar>
-        <cfvo type="min" val="0"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
         <color rgb="FF638EC6"/>
       </dataBar>
     </cfRule>
@@ -2558,8 +3172,8 @@
   <conditionalFormatting sqref="O4:O10">
     <cfRule type="dataBar" priority="7">
       <dataBar>
-        <cfvo type="min" val="0"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
         <color rgb="FF638EC6"/>
       </dataBar>
     </cfRule>
@@ -2567,8 +3181,8 @@
   <conditionalFormatting sqref="Q4:Q5">
     <cfRule type="dataBar" priority="8">
       <dataBar>
-        <cfvo type="min" val="0"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
         <color rgb="FF638EC6"/>
       </dataBar>
     </cfRule>
@@ -2576,8 +3190,8 @@
   <conditionalFormatting sqref="S4:S5">
     <cfRule type="dataBar" priority="9">
       <dataBar>
-        <cfvo type="min" val="0"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
         <color rgb="FF638EC6"/>
       </dataBar>
     </cfRule>
@@ -2585,8 +3199,8 @@
   <conditionalFormatting sqref="U4:U5">
     <cfRule type="dataBar" priority="10">
       <dataBar>
-        <cfvo type="min" val="0"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
         <color rgb="FF638EC6"/>
       </dataBar>
     </cfRule>
@@ -2594,8 +3208,8 @@
   <conditionalFormatting sqref="W4:W5">
     <cfRule type="dataBar" priority="11">
       <dataBar>
-        <cfvo type="min" val="0"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
         <color rgb="FF638EC6"/>
       </dataBar>
     </cfRule>
@@ -2605,12 +3219,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A2:W8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.7109375" customWidth="1"/>
     <col min="2" max="2" width="15.7109375" customWidth="1"/>
@@ -2637,7 +3251,7 @@
     <col min="23" max="23" width="6.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:23">
+    <row r="2" spans="1:23" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
       <c r="B2" s="2" t="s">
         <v>1</v>
@@ -2684,7 +3298,7 @@
       </c>
       <c r="W2" s="3"/>
     </row>
-    <row r="3" spans="1:23">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>0</v>
       </c>
@@ -2733,7 +3347,7 @@
       </c>
       <c r="W3" s="3"/>
     </row>
-    <row r="4" spans="1:23">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>191</v>
       </c>
@@ -2782,7 +3396,7 @@
       </c>
       <c r="W4" s="3"/>
     </row>
-    <row r="5" spans="1:23">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
       <c r="D5" s="5" t="s">
         <v>3</v>
       </c>
@@ -2844,7 +3458,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:23">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
       <c r="D6" s="5" t="s">
         <v>4</v>
       </c>
@@ -2876,7 +3490,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:23">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
       <c r="D7" s="5" t="s">
         <v>5</v>
       </c>
@@ -2908,7 +3522,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:23">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
       <c r="J8" s="5" t="s">
         <v>157</v>
       </c>
@@ -2926,8 +3540,8 @@
   <conditionalFormatting sqref="B3:X3">
     <cfRule type="dataBar" priority="12">
       <dataBar>
-        <cfvo type="min" val="0"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
         <color rgb="FF63C384"/>
       </dataBar>
     </cfRule>
@@ -2935,8 +3549,8 @@
   <conditionalFormatting sqref="B4:X4">
     <cfRule type="dataBar" priority="13">
       <dataBar>
-        <cfvo type="min" val="0"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
         <color rgb="FFC3C365"/>
       </dataBar>
     </cfRule>
@@ -2944,8 +3558,8 @@
   <conditionalFormatting sqref="C4:C5">
     <cfRule type="dataBar" priority="1">
       <dataBar>
-        <cfvo type="min" val="0"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
         <color rgb="FF638EC6"/>
       </dataBar>
     </cfRule>
@@ -2953,8 +3567,8 @@
   <conditionalFormatting sqref="E5:E8">
     <cfRule type="dataBar" priority="2">
       <dataBar>
-        <cfvo type="min" val="0"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
         <color rgb="FF638EC6"/>
       </dataBar>
     </cfRule>
@@ -2962,8 +3576,8 @@
   <conditionalFormatting sqref="G5:G6">
     <cfRule type="dataBar" priority="3">
       <dataBar>
-        <cfvo type="min" val="0"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
         <color rgb="FF638EC6"/>
       </dataBar>
     </cfRule>
@@ -2971,8 +3585,8 @@
   <conditionalFormatting sqref="I5:I8">
     <cfRule type="dataBar" priority="4">
       <dataBar>
-        <cfvo type="min" val="0"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
         <color rgb="FF638EC6"/>
       </dataBar>
     </cfRule>
@@ -2980,8 +3594,8 @@
   <conditionalFormatting sqref="K5:K9">
     <cfRule type="dataBar" priority="5">
       <dataBar>
-        <cfvo type="min" val="0"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
         <color rgb="FF638EC6"/>
       </dataBar>
     </cfRule>
@@ -2989,8 +3603,8 @@
   <conditionalFormatting sqref="M5:M9">
     <cfRule type="dataBar" priority="6">
       <dataBar>
-        <cfvo type="min" val="0"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
         <color rgb="FF638EC6"/>
       </dataBar>
     </cfRule>
@@ -2998,8 +3612,8 @@
   <conditionalFormatting sqref="O5:O8">
     <cfRule type="dataBar" priority="7">
       <dataBar>
-        <cfvo type="min" val="0"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
         <color rgb="FF638EC6"/>
       </dataBar>
     </cfRule>
@@ -3007,8 +3621,8 @@
   <conditionalFormatting sqref="Q5:Q6">
     <cfRule type="dataBar" priority="8">
       <dataBar>
-        <cfvo type="min" val="0"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
         <color rgb="FF638EC6"/>
       </dataBar>
     </cfRule>
@@ -3016,8 +3630,8 @@
   <conditionalFormatting sqref="S5:S6">
     <cfRule type="dataBar" priority="9">
       <dataBar>
-        <cfvo type="min" val="0"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
         <color rgb="FF638EC6"/>
       </dataBar>
     </cfRule>
@@ -3025,8 +3639,8 @@
   <conditionalFormatting sqref="U5:U6">
     <cfRule type="dataBar" priority="10">
       <dataBar>
-        <cfvo type="min" val="0"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
         <color rgb="FF638EC6"/>
       </dataBar>
     </cfRule>
@@ -3034,8 +3648,8 @@
   <conditionalFormatting sqref="W5:W6">
     <cfRule type="dataBar" priority="11">
       <dataBar>
-        <cfvo type="min" val="0"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
         <color rgb="FF638EC6"/>
       </dataBar>
     </cfRule>
@@ -3045,49 +3659,39 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A2:AH9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.7109375" customWidth="1"/>
     <col min="2" max="2" width="15.7109375" customWidth="1"/>
     <col min="3" max="3" width="6.7109375" customWidth="1"/>
     <col min="5" max="5" width="15.7109375" customWidth="1"/>
-    <col min="6" max="6" width="6.7109375" customWidth="1"/>
-    <col min="7" max="7" width="6.7109375" customWidth="1"/>
+    <col min="6" max="7" width="6.7109375" customWidth="1"/>
     <col min="8" max="8" width="15.7109375" customWidth="1"/>
-    <col min="9" max="9" width="6.7109375" customWidth="1"/>
-    <col min="10" max="10" width="6.7109375" customWidth="1"/>
+    <col min="9" max="10" width="6.7109375" customWidth="1"/>
     <col min="11" max="11" width="15.7109375" customWidth="1"/>
-    <col min="12" max="12" width="6.7109375" customWidth="1"/>
-    <col min="13" max="13" width="6.7109375" customWidth="1"/>
+    <col min="12" max="13" width="6.7109375" customWidth="1"/>
     <col min="14" max="14" width="15.7109375" customWidth="1"/>
-    <col min="15" max="15" width="6.7109375" customWidth="1"/>
-    <col min="16" max="16" width="6.7109375" customWidth="1"/>
+    <col min="15" max="16" width="6.7109375" customWidth="1"/>
     <col min="17" max="17" width="15.7109375" customWidth="1"/>
-    <col min="18" max="18" width="6.7109375" customWidth="1"/>
-    <col min="19" max="19" width="6.7109375" customWidth="1"/>
+    <col min="18" max="19" width="6.7109375" customWidth="1"/>
     <col min="20" max="20" width="15.7109375" customWidth="1"/>
-    <col min="21" max="21" width="6.7109375" customWidth="1"/>
-    <col min="22" max="22" width="6.7109375" customWidth="1"/>
+    <col min="21" max="22" width="6.7109375" customWidth="1"/>
     <col min="23" max="23" width="15.7109375" customWidth="1"/>
-    <col min="24" max="24" width="6.7109375" customWidth="1"/>
-    <col min="25" max="25" width="6.7109375" customWidth="1"/>
+    <col min="24" max="25" width="6.7109375" customWidth="1"/>
     <col min="26" max="26" width="15.7109375" customWidth="1"/>
-    <col min="27" max="27" width="6.7109375" customWidth="1"/>
-    <col min="28" max="28" width="6.7109375" customWidth="1"/>
+    <col min="27" max="28" width="6.7109375" customWidth="1"/>
     <col min="29" max="29" width="15.7109375" customWidth="1"/>
-    <col min="30" max="30" width="6.7109375" customWidth="1"/>
-    <col min="31" max="31" width="6.7109375" customWidth="1"/>
+    <col min="30" max="31" width="6.7109375" customWidth="1"/>
     <col min="32" max="32" width="15.7109375" customWidth="1"/>
-    <col min="33" max="33" width="6.7109375" customWidth="1"/>
-    <col min="34" max="34" width="6.7109375" customWidth="1"/>
+    <col min="33" max="34" width="6.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:34">
+    <row r="2" spans="1:34" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
       <c r="B2" s="2" t="s">
         <v>1</v>
@@ -3145,7 +3749,7 @@
       <c r="AG2" s="1"/>
       <c r="AH2" s="3"/>
     </row>
-    <row r="3" spans="1:34">
+    <row r="3" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>0</v>
       </c>
@@ -3205,7 +3809,7 @@
       <c r="AG3" s="1"/>
       <c r="AH3" s="3"/>
     </row>
-    <row r="4" spans="1:34">
+    <row r="4" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>191</v>
       </c>
@@ -3265,7 +3869,7 @@
       <c r="AG4" s="1"/>
       <c r="AH4" s="3"/>
     </row>
-    <row r="5" spans="1:34">
+    <row r="5" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>192</v>
       </c>
@@ -3323,7 +3927,7 @@
       <c r="AG5" s="1"/>
       <c r="AH5" s="3"/>
     </row>
-    <row r="6" spans="1:34">
+    <row r="6" spans="1:34" x14ac:dyDescent="0.25">
       <c r="E6" s="5" t="s">
         <v>3</v>
       </c>
@@ -3367,7 +3971,7 @@
         <v>5</v>
       </c>
       <c r="S6" s="6">
-        <v>0.6666666666666666</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="T6" s="5" t="s">
         <v>182</v>
@@ -3415,7 +4019,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:34">
+    <row r="7" spans="1:34" x14ac:dyDescent="0.25">
       <c r="E7" s="5" t="s">
         <v>4</v>
       </c>
@@ -3450,7 +4054,7 @@
         <v>4</v>
       </c>
       <c r="S7" s="6">
-        <v>0.6666666666666666</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="T7" s="5" t="s">
         <v>177</v>
@@ -3462,7 +4066,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:34">
+    <row r="8" spans="1:34" x14ac:dyDescent="0.25">
       <c r="E8" s="5" t="s">
         <v>5</v>
       </c>
@@ -3497,7 +4101,7 @@
         <v>3</v>
       </c>
       <c r="S8" s="6">
-        <v>0.6666666666666666</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="T8" s="5" t="s">
         <v>179</v>
@@ -3509,7 +4113,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="9" spans="1:34">
+    <row r="9" spans="1:34" x14ac:dyDescent="0.25">
       <c r="N9" s="5" t="s">
         <v>157</v>
       </c>
@@ -3526,15 +4130,15 @@
         <v>2</v>
       </c>
       <c r="S9" s="6">
-        <v>0.6666666666666666</v>
+        <v>0.66666666666666663</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="AA6:AA7">
     <cfRule type="dataBar" priority="16">
       <dataBar>
-        <cfvo type="min" val="0"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
         <color rgb="FF638EC6"/>
       </dataBar>
     </cfRule>
@@ -3542,8 +4146,8 @@
   <conditionalFormatting sqref="AB6:AB7">
     <cfRule type="dataBar" priority="17">
       <dataBar>
-        <cfvo type="min" val="0"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
         <color rgb="FFC36565"/>
       </dataBar>
     </cfRule>
@@ -3551,8 +4155,8 @@
   <conditionalFormatting sqref="AD6:AD7">
     <cfRule type="dataBar" priority="18">
       <dataBar>
-        <cfvo type="min" val="0"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
         <color rgb="FF638EC6"/>
       </dataBar>
     </cfRule>
@@ -3560,8 +4164,8 @@
   <conditionalFormatting sqref="AE6:AE7">
     <cfRule type="dataBar" priority="19">
       <dataBar>
-        <cfvo type="min" val="0"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
         <color rgb="FFC36565"/>
       </dataBar>
     </cfRule>
@@ -3569,8 +4173,8 @@
   <conditionalFormatting sqref="AG6:AG7">
     <cfRule type="dataBar" priority="20">
       <dataBar>
-        <cfvo type="min" val="0"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
         <color rgb="FF638EC6"/>
       </dataBar>
     </cfRule>
@@ -3578,8 +4182,8 @@
   <conditionalFormatting sqref="AH6:AH7">
     <cfRule type="dataBar" priority="21">
       <dataBar>
-        <cfvo type="min" val="0"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
         <color rgb="FFC36565"/>
       </dataBar>
     </cfRule>
@@ -3587,8 +4191,8 @@
   <conditionalFormatting sqref="B3:AI3">
     <cfRule type="dataBar" priority="22">
       <dataBar>
-        <cfvo type="min" val="0"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
         <color rgb="FF63C384"/>
       </dataBar>
     </cfRule>
@@ -3596,8 +4200,8 @@
   <conditionalFormatting sqref="B4:AI4">
     <cfRule type="dataBar" priority="23">
       <dataBar>
-        <cfvo type="min" val="0"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
         <color rgb="FFC3C365"/>
       </dataBar>
     </cfRule>
@@ -3605,8 +4209,8 @@
   <conditionalFormatting sqref="B5:AI5">
     <cfRule type="dataBar" priority="24">
       <dataBar>
-        <cfvo type="min" val="0"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
         <color rgb="FF666666"/>
       </dataBar>
     </cfRule>
@@ -3614,8 +4218,8 @@
   <conditionalFormatting sqref="C6">
     <cfRule type="dataBar" priority="1">
       <dataBar>
-        <cfvo type="min" val="0"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
         <color rgb="FF638EC6"/>
       </dataBar>
     </cfRule>
@@ -3623,8 +4227,8 @@
   <conditionalFormatting sqref="F6:F9">
     <cfRule type="dataBar" priority="2">
       <dataBar>
-        <cfvo type="min" val="0"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
         <color rgb="FF638EC6"/>
       </dataBar>
     </cfRule>
@@ -3632,8 +4236,8 @@
   <conditionalFormatting sqref="G6:G9">
     <cfRule type="dataBar" priority="3">
       <dataBar>
-        <cfvo type="min" val="0"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
         <color rgb="FFC36565"/>
       </dataBar>
     </cfRule>
@@ -3641,8 +4245,8 @@
   <conditionalFormatting sqref="I6:I7">
     <cfRule type="dataBar" priority="4">
       <dataBar>
-        <cfvo type="min" val="0"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
         <color rgb="FF638EC6"/>
       </dataBar>
     </cfRule>
@@ -3650,8 +4254,8 @@
   <conditionalFormatting sqref="J6:J7">
     <cfRule type="dataBar" priority="5">
       <dataBar>
-        <cfvo type="min" val="0"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
         <color rgb="FFC36565"/>
       </dataBar>
     </cfRule>
@@ -3659,8 +4263,8 @@
   <conditionalFormatting sqref="L6:L9">
     <cfRule type="dataBar" priority="6">
       <dataBar>
-        <cfvo type="min" val="0"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
         <color rgb="FF638EC6"/>
       </dataBar>
     </cfRule>
@@ -3668,8 +4272,8 @@
   <conditionalFormatting sqref="M6:M9">
     <cfRule type="dataBar" priority="7">
       <dataBar>
-        <cfvo type="min" val="0"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
         <color rgb="FFC36565"/>
       </dataBar>
     </cfRule>
@@ -3677,8 +4281,8 @@
   <conditionalFormatting sqref="O6:O10">
     <cfRule type="dataBar" priority="8">
       <dataBar>
-        <cfvo type="min" val="0"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
         <color rgb="FF638EC6"/>
       </dataBar>
     </cfRule>
@@ -3686,8 +4290,8 @@
   <conditionalFormatting sqref="P6:P10">
     <cfRule type="dataBar" priority="9">
       <dataBar>
-        <cfvo type="min" val="0"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
         <color rgb="FFC36565"/>
       </dataBar>
     </cfRule>
@@ -3695,8 +4299,8 @@
   <conditionalFormatting sqref="R6:R10">
     <cfRule type="dataBar" priority="10">
       <dataBar>
-        <cfvo type="min" val="0"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
         <color rgb="FF638EC6"/>
       </dataBar>
     </cfRule>
@@ -3704,8 +4308,8 @@
   <conditionalFormatting sqref="S6:S10">
     <cfRule type="dataBar" priority="11">
       <dataBar>
-        <cfvo type="min" val="0"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
         <color rgb="FFC36565"/>
       </dataBar>
     </cfRule>
@@ -3713,8 +4317,8 @@
   <conditionalFormatting sqref="U6:U9">
     <cfRule type="dataBar" priority="12">
       <dataBar>
-        <cfvo type="min" val="0"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
         <color rgb="FF638EC6"/>
       </dataBar>
     </cfRule>
@@ -3722,8 +4326,8 @@
   <conditionalFormatting sqref="V6:V9">
     <cfRule type="dataBar" priority="13">
       <dataBar>
-        <cfvo type="min" val="0"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
         <color rgb="FFC36565"/>
       </dataBar>
     </cfRule>
@@ -3731,8 +4335,8 @@
   <conditionalFormatting sqref="X6:X7">
     <cfRule type="dataBar" priority="14">
       <dataBar>
-        <cfvo type="min" val="0"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
         <color rgb="FF638EC6"/>
       </dataBar>
     </cfRule>
@@ -3740,12 +4344,2431 @@
   <conditionalFormatting sqref="Y6:Y7">
     <cfRule type="dataBar" priority="15">
       <dataBar>
-        <cfvo type="min" val="0"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
         <color rgb="FFC36565"/>
       </dataBar>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{806A71DD-9C48-4AC3-ABA5-9375E0C0154A}">
+  <dimension ref="A3:S55"/>
+  <sheetViews>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="B36" sqref="B36:O55"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="3" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B3" s="24" t="s">
+        <v>194</v>
+      </c>
+      <c r="C3" s="25"/>
+      <c r="D3" s="25"/>
+      <c r="E3" s="25"/>
+      <c r="F3" s="25"/>
+      <c r="G3" s="25"/>
+      <c r="H3" s="25"/>
+      <c r="I3" s="25"/>
+      <c r="J3" s="25"/>
+      <c r="K3" s="25"/>
+      <c r="L3" s="25"/>
+      <c r="M3" s="25"/>
+      <c r="N3" s="25"/>
+      <c r="O3" s="25"/>
+      <c r="P3" s="25"/>
+      <c r="Q3" s="25"/>
+      <c r="R3" s="25"/>
+      <c r="S3" s="26"/>
+    </row>
+    <row r="4" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B4" s="18"/>
+      <c r="C4" s="19"/>
+      <c r="D4" s="19"/>
+      <c r="E4" s="19"/>
+      <c r="F4" s="19"/>
+      <c r="G4" s="19"/>
+      <c r="H4" s="19"/>
+      <c r="I4" s="19"/>
+      <c r="J4" s="19"/>
+      <c r="K4" s="19"/>
+      <c r="L4" s="19"/>
+      <c r="M4" s="19"/>
+      <c r="N4" s="19"/>
+      <c r="O4" s="19"/>
+      <c r="P4" s="19"/>
+      <c r="Q4" s="19"/>
+      <c r="R4" s="19"/>
+      <c r="S4" s="20"/>
+    </row>
+    <row r="5" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B5" s="18"/>
+      <c r="C5" s="19"/>
+      <c r="D5" s="19"/>
+      <c r="E5" s="19"/>
+      <c r="F5" s="19"/>
+      <c r="G5" s="19"/>
+      <c r="H5" s="19"/>
+      <c r="I5" s="19"/>
+      <c r="J5" s="19"/>
+      <c r="K5" s="19"/>
+      <c r="L5" s="19"/>
+      <c r="M5" s="19"/>
+      <c r="N5" s="19"/>
+      <c r="O5" s="19"/>
+      <c r="P5" s="19"/>
+      <c r="Q5" s="19"/>
+      <c r="R5" s="19"/>
+      <c r="S5" s="20"/>
+    </row>
+    <row r="6" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B6" s="18"/>
+      <c r="C6" s="19"/>
+      <c r="D6" s="19"/>
+      <c r="E6" s="19"/>
+      <c r="F6" s="19"/>
+      <c r="G6" s="19"/>
+      <c r="H6" s="19"/>
+      <c r="I6" s="19"/>
+      <c r="J6" s="19"/>
+      <c r="K6" s="19"/>
+      <c r="L6" s="19"/>
+      <c r="M6" s="19"/>
+      <c r="N6" s="19"/>
+      <c r="O6" s="19"/>
+      <c r="P6" s="19"/>
+      <c r="Q6" s="19"/>
+      <c r="R6" s="19"/>
+      <c r="S6" s="20"/>
+    </row>
+    <row r="7" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B7" s="18"/>
+      <c r="C7" s="19"/>
+      <c r="D7" s="19"/>
+      <c r="E7" s="19"/>
+      <c r="F7" s="19"/>
+      <c r="G7" s="19"/>
+      <c r="H7" s="19"/>
+      <c r="I7" s="19"/>
+      <c r="J7" s="19"/>
+      <c r="K7" s="19"/>
+      <c r="L7" s="19"/>
+      <c r="M7" s="19"/>
+      <c r="N7" s="19"/>
+      <c r="O7" s="19"/>
+      <c r="P7" s="19"/>
+      <c r="Q7" s="19"/>
+      <c r="R7" s="19"/>
+      <c r="S7" s="20"/>
+    </row>
+    <row r="8" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B8" s="18"/>
+      <c r="C8" s="19"/>
+      <c r="D8" s="19"/>
+      <c r="E8" s="19"/>
+      <c r="F8" s="19"/>
+      <c r="G8" s="19"/>
+      <c r="H8" s="19"/>
+      <c r="I8" s="19"/>
+      <c r="J8" s="19"/>
+      <c r="K8" s="19"/>
+      <c r="L8" s="19"/>
+      <c r="M8" s="19"/>
+      <c r="N8" s="19"/>
+      <c r="O8" s="19"/>
+      <c r="P8" s="19"/>
+      <c r="Q8" s="19"/>
+      <c r="R8" s="19"/>
+      <c r="S8" s="20"/>
+    </row>
+    <row r="9" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B9" s="18"/>
+      <c r="C9" s="19"/>
+      <c r="D9" s="19"/>
+      <c r="E9" s="19"/>
+      <c r="F9" s="19"/>
+      <c r="G9" s="19"/>
+      <c r="H9" s="19"/>
+      <c r="I9" s="19"/>
+      <c r="J9" s="19"/>
+      <c r="K9" s="19"/>
+      <c r="L9" s="19"/>
+      <c r="M9" s="19"/>
+      <c r="N9" s="19"/>
+      <c r="O9" s="19"/>
+      <c r="P9" s="19"/>
+      <c r="Q9" s="19"/>
+      <c r="R9" s="19"/>
+      <c r="S9" s="20"/>
+    </row>
+    <row r="10" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B10" s="18"/>
+      <c r="C10" s="19"/>
+      <c r="D10" s="19"/>
+      <c r="E10" s="19"/>
+      <c r="F10" s="19"/>
+      <c r="G10" s="19"/>
+      <c r="H10" s="19"/>
+      <c r="I10" s="19"/>
+      <c r="J10" s="19"/>
+      <c r="K10" s="19"/>
+      <c r="L10" s="19"/>
+      <c r="M10" s="19"/>
+      <c r="N10" s="19"/>
+      <c r="O10" s="19"/>
+      <c r="P10" s="19"/>
+      <c r="Q10" s="19"/>
+      <c r="R10" s="19"/>
+      <c r="S10" s="20"/>
+    </row>
+    <row r="11" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B11" s="18"/>
+      <c r="C11" s="19"/>
+      <c r="D11" s="19"/>
+      <c r="E11" s="19"/>
+      <c r="F11" s="19"/>
+      <c r="G11" s="19"/>
+      <c r="H11" s="19"/>
+      <c r="I11" s="19"/>
+      <c r="J11" s="19"/>
+      <c r="K11" s="19"/>
+      <c r="L11" s="19"/>
+      <c r="M11" s="19"/>
+      <c r="N11" s="19"/>
+      <c r="O11" s="19"/>
+      <c r="P11" s="19"/>
+      <c r="Q11" s="19"/>
+      <c r="R11" s="19"/>
+      <c r="S11" s="20"/>
+    </row>
+    <row r="12" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B12" s="18"/>
+      <c r="C12" s="19"/>
+      <c r="D12" s="19"/>
+      <c r="E12" s="19"/>
+      <c r="F12" s="19"/>
+      <c r="G12" s="19"/>
+      <c r="H12" s="19"/>
+      <c r="I12" s="19"/>
+      <c r="J12" s="19"/>
+      <c r="K12" s="19"/>
+      <c r="L12" s="19"/>
+      <c r="M12" s="19"/>
+      <c r="N12" s="19"/>
+      <c r="O12" s="19"/>
+      <c r="P12" s="19"/>
+      <c r="Q12" s="19"/>
+      <c r="R12" s="19"/>
+      <c r="S12" s="20"/>
+    </row>
+    <row r="13" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B13" s="18"/>
+      <c r="C13" s="19"/>
+      <c r="D13" s="19"/>
+      <c r="E13" s="19"/>
+      <c r="F13" s="19"/>
+      <c r="G13" s="19"/>
+      <c r="H13" s="19"/>
+      <c r="I13" s="19"/>
+      <c r="J13" s="19"/>
+      <c r="K13" s="19"/>
+      <c r="L13" s="19"/>
+      <c r="M13" s="19"/>
+      <c r="N13" s="19"/>
+      <c r="O13" s="19"/>
+      <c r="P13" s="19"/>
+      <c r="Q13" s="19"/>
+      <c r="R13" s="19"/>
+      <c r="S13" s="20"/>
+    </row>
+    <row r="14" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B14" s="18"/>
+      <c r="C14" s="19"/>
+      <c r="D14" s="19"/>
+      <c r="E14" s="19"/>
+      <c r="F14" s="19"/>
+      <c r="G14" s="19"/>
+      <c r="H14" s="19"/>
+      <c r="I14" s="19"/>
+      <c r="J14" s="19"/>
+      <c r="K14" s="19"/>
+      <c r="L14" s="19"/>
+      <c r="M14" s="19"/>
+      <c r="N14" s="19"/>
+      <c r="O14" s="19"/>
+      <c r="P14" s="19"/>
+      <c r="Q14" s="19"/>
+      <c r="R14" s="19"/>
+      <c r="S14" s="20"/>
+    </row>
+    <row r="15" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B15" s="18"/>
+      <c r="C15" s="19"/>
+      <c r="D15" s="19"/>
+      <c r="E15" s="19"/>
+      <c r="F15" s="19"/>
+      <c r="G15" s="19"/>
+      <c r="H15" s="19"/>
+      <c r="I15" s="19"/>
+      <c r="J15" s="19"/>
+      <c r="K15" s="19"/>
+      <c r="L15" s="19"/>
+      <c r="M15" s="19"/>
+      <c r="N15" s="19"/>
+      <c r="O15" s="19"/>
+      <c r="P15" s="19"/>
+      <c r="Q15" s="19"/>
+      <c r="R15" s="19"/>
+      <c r="S15" s="20"/>
+    </row>
+    <row r="16" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B16" s="18"/>
+      <c r="C16" s="19"/>
+      <c r="D16" s="19"/>
+      <c r="E16" s="19"/>
+      <c r="F16" s="19"/>
+      <c r="G16" s="19"/>
+      <c r="H16" s="19"/>
+      <c r="I16" s="19"/>
+      <c r="J16" s="19"/>
+      <c r="K16" s="19"/>
+      <c r="L16" s="19"/>
+      <c r="M16" s="19"/>
+      <c r="N16" s="19"/>
+      <c r="O16" s="19"/>
+      <c r="P16" s="19"/>
+      <c r="Q16" s="19"/>
+      <c r="R16" s="19"/>
+      <c r="S16" s="20"/>
+    </row>
+    <row r="17" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B17" s="18"/>
+      <c r="C17" s="19"/>
+      <c r="D17" s="19"/>
+      <c r="E17" s="19"/>
+      <c r="F17" s="19"/>
+      <c r="G17" s="19"/>
+      <c r="H17" s="19"/>
+      <c r="I17" s="19"/>
+      <c r="J17" s="19"/>
+      <c r="K17" s="19"/>
+      <c r="L17" s="19"/>
+      <c r="M17" s="19"/>
+      <c r="N17" s="19"/>
+      <c r="O17" s="19"/>
+      <c r="P17" s="19"/>
+      <c r="Q17" s="19"/>
+      <c r="R17" s="19"/>
+      <c r="S17" s="20"/>
+    </row>
+    <row r="18" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B18" s="21"/>
+      <c r="C18" s="22"/>
+      <c r="D18" s="22"/>
+      <c r="E18" s="22"/>
+      <c r="F18" s="22"/>
+      <c r="G18" s="22"/>
+      <c r="H18" s="22"/>
+      <c r="I18" s="22"/>
+      <c r="J18" s="22"/>
+      <c r="K18" s="22"/>
+      <c r="L18" s="22"/>
+      <c r="M18" s="22"/>
+      <c r="N18" s="22"/>
+      <c r="O18" s="22"/>
+      <c r="P18" s="22"/>
+      <c r="Q18" s="22"/>
+      <c r="R18" s="22"/>
+      <c r="S18" s="23"/>
+    </row>
+    <row r="21" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B21" s="8" t="s">
+        <v>193</v>
+      </c>
+      <c r="C21" s="9"/>
+      <c r="D21" s="9"/>
+      <c r="E21" s="9"/>
+      <c r="F21" s="9"/>
+      <c r="G21" s="9"/>
+      <c r="H21" s="9"/>
+      <c r="I21" s="9"/>
+      <c r="J21" s="9"/>
+      <c r="K21" s="9"/>
+      <c r="L21" s="9"/>
+      <c r="M21" s="9"/>
+      <c r="N21" s="9"/>
+      <c r="O21" s="10"/>
+    </row>
+    <row r="22" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B22" s="11" t="s">
+        <v>196</v>
+      </c>
+      <c r="C22" s="12"/>
+      <c r="D22" s="12"/>
+      <c r="E22" s="12"/>
+      <c r="F22" s="12"/>
+      <c r="G22" s="12"/>
+      <c r="H22" s="12"/>
+      <c r="I22" s="12"/>
+      <c r="J22" s="12"/>
+      <c r="K22" s="12"/>
+      <c r="L22" s="12"/>
+      <c r="M22" s="12"/>
+      <c r="N22" s="12"/>
+      <c r="O22" s="13"/>
+    </row>
+    <row r="23" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B23" s="27"/>
+      <c r="C23" s="28" t="s">
+        <v>197</v>
+      </c>
+      <c r="D23" s="28"/>
+      <c r="E23" s="28"/>
+      <c r="F23" s="28"/>
+      <c r="G23" s="28"/>
+      <c r="H23" s="28"/>
+      <c r="I23" s="28"/>
+      <c r="J23" s="28"/>
+      <c r="K23" s="28"/>
+      <c r="L23" s="28"/>
+      <c r="M23" s="28"/>
+      <c r="N23" s="28"/>
+      <c r="O23" s="14"/>
+    </row>
+    <row r="24" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B24" s="27"/>
+      <c r="C24" s="29"/>
+      <c r="D24" s="28" t="s">
+        <v>198</v>
+      </c>
+      <c r="E24" s="28"/>
+      <c r="F24" s="28"/>
+      <c r="G24" s="28"/>
+      <c r="H24" s="28"/>
+      <c r="I24" s="28"/>
+      <c r="J24" s="28"/>
+      <c r="K24" s="28"/>
+      <c r="L24" s="28"/>
+      <c r="M24" s="28"/>
+      <c r="N24" s="28"/>
+      <c r="O24" s="14"/>
+    </row>
+    <row r="25" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B25" s="27"/>
+      <c r="C25" s="29"/>
+      <c r="D25" s="28" t="s">
+        <v>199</v>
+      </c>
+      <c r="E25" s="28"/>
+      <c r="F25" s="28"/>
+      <c r="G25" s="28"/>
+      <c r="H25" s="28"/>
+      <c r="I25" s="28"/>
+      <c r="J25" s="28"/>
+      <c r="K25" s="28"/>
+      <c r="L25" s="28"/>
+      <c r="M25" s="28"/>
+      <c r="N25" s="28"/>
+      <c r="O25" s="14"/>
+    </row>
+    <row r="26" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B26" s="27"/>
+      <c r="C26" s="29"/>
+      <c r="D26" s="29"/>
+      <c r="E26" s="28" t="s">
+        <v>200</v>
+      </c>
+      <c r="F26" s="28"/>
+      <c r="G26" s="28"/>
+      <c r="H26" s="28"/>
+      <c r="I26" s="28"/>
+      <c r="J26" s="28"/>
+      <c r="K26" s="28"/>
+      <c r="L26" s="28"/>
+      <c r="M26" s="28"/>
+      <c r="N26" s="28"/>
+      <c r="O26" s="14"/>
+    </row>
+    <row r="27" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B27" s="27"/>
+      <c r="C27" s="29"/>
+      <c r="D27" s="29"/>
+      <c r="E27" s="29"/>
+      <c r="F27" s="28" t="s">
+        <v>201</v>
+      </c>
+      <c r="G27" s="28"/>
+      <c r="H27" s="28"/>
+      <c r="I27" s="28"/>
+      <c r="J27" s="28"/>
+      <c r="K27" s="28"/>
+      <c r="L27" s="28"/>
+      <c r="M27" s="28"/>
+      <c r="N27" s="28"/>
+      <c r="O27" s="14"/>
+    </row>
+    <row r="28" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B28" s="27"/>
+      <c r="C28" s="29"/>
+      <c r="D28" s="29"/>
+      <c r="E28" s="29"/>
+      <c r="F28" s="30" t="s">
+        <v>202</v>
+      </c>
+      <c r="G28" s="30"/>
+      <c r="H28" s="30"/>
+      <c r="I28" s="30"/>
+      <c r="J28" s="30"/>
+      <c r="K28" s="30"/>
+      <c r="L28" s="30"/>
+      <c r="M28" s="30"/>
+      <c r="N28" s="30"/>
+      <c r="O28" s="31"/>
+    </row>
+    <row r="29" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B29" s="27"/>
+      <c r="C29" s="29"/>
+      <c r="D29" s="29"/>
+      <c r="E29" s="29"/>
+      <c r="F29" s="28" t="s">
+        <v>203</v>
+      </c>
+      <c r="G29" s="28"/>
+      <c r="H29" s="28"/>
+      <c r="I29" s="28"/>
+      <c r="J29" s="28"/>
+      <c r="K29" s="28"/>
+      <c r="L29" s="28"/>
+      <c r="M29" s="28"/>
+      <c r="N29" s="28"/>
+      <c r="O29" s="14"/>
+    </row>
+    <row r="30" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B30" s="27"/>
+      <c r="C30" s="29"/>
+      <c r="D30" s="29"/>
+      <c r="E30" s="28" t="s">
+        <v>204</v>
+      </c>
+      <c r="F30" s="28"/>
+      <c r="G30" s="28"/>
+      <c r="H30" s="28"/>
+      <c r="I30" s="28"/>
+      <c r="J30" s="28"/>
+      <c r="K30" s="28"/>
+      <c r="L30" s="28"/>
+      <c r="M30" s="28"/>
+      <c r="N30" s="28"/>
+      <c r="O30" s="14"/>
+    </row>
+    <row r="31" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B31" s="27"/>
+      <c r="C31" s="29"/>
+      <c r="D31" s="28" t="s">
+        <v>205</v>
+      </c>
+      <c r="E31" s="28"/>
+      <c r="F31" s="28"/>
+      <c r="G31" s="28"/>
+      <c r="H31" s="28"/>
+      <c r="I31" s="28"/>
+      <c r="J31" s="28"/>
+      <c r="K31" s="28"/>
+      <c r="L31" s="28"/>
+      <c r="M31" s="28"/>
+      <c r="N31" s="28"/>
+      <c r="O31" s="14"/>
+    </row>
+    <row r="32" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B32" s="27"/>
+      <c r="C32" s="28" t="s">
+        <v>206</v>
+      </c>
+      <c r="D32" s="28"/>
+      <c r="E32" s="28"/>
+      <c r="F32" s="28"/>
+      <c r="G32" s="28"/>
+      <c r="H32" s="28"/>
+      <c r="I32" s="28"/>
+      <c r="J32" s="28"/>
+      <c r="K32" s="28"/>
+      <c r="L32" s="28"/>
+      <c r="M32" s="28"/>
+      <c r="N32" s="28"/>
+      <c r="O32" s="14"/>
+    </row>
+    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B33" s="15" t="s">
+        <v>195</v>
+      </c>
+      <c r="C33" s="16"/>
+      <c r="D33" s="16"/>
+      <c r="E33" s="16"/>
+      <c r="F33" s="16"/>
+      <c r="G33" s="16"/>
+      <c r="H33" s="16"/>
+      <c r="I33" s="16"/>
+      <c r="J33" s="16"/>
+      <c r="K33" s="16"/>
+      <c r="L33" s="16"/>
+      <c r="M33" s="16"/>
+      <c r="N33" s="16"/>
+      <c r="O33" s="17"/>
+    </row>
+    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A34" s="19"/>
+      <c r="B34" s="29"/>
+      <c r="C34" s="29"/>
+      <c r="D34" s="29"/>
+      <c r="E34" s="29"/>
+      <c r="F34" s="29"/>
+      <c r="G34" s="29"/>
+      <c r="H34" s="29"/>
+      <c r="I34" s="29"/>
+      <c r="J34" s="29"/>
+      <c r="K34" s="29"/>
+      <c r="L34" s="29"/>
+      <c r="M34" s="29"/>
+      <c r="N34" s="29"/>
+      <c r="O34" s="29"/>
+      <c r="P34" s="19"/>
+    </row>
+    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A35" s="19"/>
+      <c r="B35" s="29"/>
+      <c r="C35" s="29"/>
+      <c r="D35" s="29"/>
+      <c r="E35" s="29"/>
+      <c r="F35" s="29"/>
+      <c r="G35" s="29"/>
+      <c r="H35" s="29"/>
+      <c r="I35" s="29"/>
+      <c r="J35" s="29"/>
+      <c r="K35" s="29"/>
+      <c r="L35" s="29"/>
+      <c r="M35" s="29"/>
+      <c r="N35" s="29"/>
+      <c r="O35" s="29"/>
+      <c r="P35" s="19"/>
+    </row>
+    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A36" s="19"/>
+      <c r="B36" s="8" t="s">
+        <v>207</v>
+      </c>
+      <c r="C36" s="9"/>
+      <c r="D36" s="9"/>
+      <c r="E36" s="9"/>
+      <c r="F36" s="9"/>
+      <c r="G36" s="9"/>
+      <c r="H36" s="9"/>
+      <c r="I36" s="9"/>
+      <c r="J36" s="9"/>
+      <c r="K36" s="9"/>
+      <c r="L36" s="9"/>
+      <c r="M36" s="9"/>
+      <c r="N36" s="9"/>
+      <c r="O36" s="10"/>
+      <c r="P36" s="19"/>
+    </row>
+    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A37" s="19"/>
+      <c r="B37" s="39" t="s">
+        <v>221</v>
+      </c>
+      <c r="C37" s="40"/>
+      <c r="D37" s="40"/>
+      <c r="E37" s="40"/>
+      <c r="F37" s="40"/>
+      <c r="G37" s="40"/>
+      <c r="H37" s="40"/>
+      <c r="I37" s="40"/>
+      <c r="J37" s="40"/>
+      <c r="K37" s="40"/>
+      <c r="L37" s="40"/>
+      <c r="M37" s="40"/>
+      <c r="N37" s="40"/>
+      <c r="O37" s="41"/>
+      <c r="P37" s="19"/>
+    </row>
+    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A38" s="19"/>
+      <c r="B38" s="42"/>
+      <c r="C38" s="33" t="s">
+        <v>209</v>
+      </c>
+      <c r="D38" s="33"/>
+      <c r="E38" s="33"/>
+      <c r="F38" s="33"/>
+      <c r="G38" s="33"/>
+      <c r="H38" s="33"/>
+      <c r="I38" s="33"/>
+      <c r="J38" s="33"/>
+      <c r="K38" s="33"/>
+      <c r="L38" s="33"/>
+      <c r="M38" s="33"/>
+      <c r="N38" s="33"/>
+      <c r="O38" s="34"/>
+      <c r="P38" s="19"/>
+    </row>
+    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A39" s="19"/>
+      <c r="B39" s="42"/>
+      <c r="C39" s="43"/>
+      <c r="D39" s="33" t="s">
+        <v>210</v>
+      </c>
+      <c r="E39" s="33"/>
+      <c r="F39" s="33"/>
+      <c r="G39" s="33"/>
+      <c r="H39" s="33"/>
+      <c r="I39" s="33"/>
+      <c r="J39" s="33"/>
+      <c r="K39" s="33"/>
+      <c r="L39" s="33"/>
+      <c r="M39" s="33"/>
+      <c r="N39" s="33"/>
+      <c r="O39" s="34"/>
+      <c r="P39" s="19"/>
+    </row>
+    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A40" s="19"/>
+      <c r="B40" s="42"/>
+      <c r="C40" s="33" t="s">
+        <v>211</v>
+      </c>
+      <c r="D40" s="33"/>
+      <c r="E40" s="33"/>
+      <c r="F40" s="33"/>
+      <c r="G40" s="33"/>
+      <c r="H40" s="33"/>
+      <c r="I40" s="33"/>
+      <c r="J40" s="33"/>
+      <c r="K40" s="33"/>
+      <c r="L40" s="33"/>
+      <c r="M40" s="33"/>
+      <c r="N40" s="33"/>
+      <c r="O40" s="34"/>
+      <c r="P40" s="19"/>
+    </row>
+    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A41" s="19"/>
+      <c r="B41" s="42"/>
+      <c r="C41" s="33" t="s">
+        <v>212</v>
+      </c>
+      <c r="D41" s="33"/>
+      <c r="E41" s="33"/>
+      <c r="F41" s="33"/>
+      <c r="G41" s="33"/>
+      <c r="H41" s="33"/>
+      <c r="I41" s="33"/>
+      <c r="J41" s="33"/>
+      <c r="K41" s="33"/>
+      <c r="L41" s="33"/>
+      <c r="M41" s="33"/>
+      <c r="N41" s="33"/>
+      <c r="O41" s="34"/>
+      <c r="P41" s="19"/>
+    </row>
+    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A42" s="19"/>
+      <c r="B42" s="42"/>
+      <c r="C42" s="43"/>
+      <c r="D42" s="33" t="s">
+        <v>213</v>
+      </c>
+      <c r="E42" s="33"/>
+      <c r="F42" s="33"/>
+      <c r="G42" s="33"/>
+      <c r="H42" s="33"/>
+      <c r="I42" s="33"/>
+      <c r="J42" s="33"/>
+      <c r="K42" s="33"/>
+      <c r="L42" s="33"/>
+      <c r="M42" s="33"/>
+      <c r="N42" s="33"/>
+      <c r="O42" s="34"/>
+      <c r="P42" s="19"/>
+    </row>
+    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A43" s="19"/>
+      <c r="B43" s="42"/>
+      <c r="C43" s="43"/>
+      <c r="D43" s="43"/>
+      <c r="E43" s="33" t="s">
+        <v>214</v>
+      </c>
+      <c r="F43" s="33"/>
+      <c r="G43" s="33"/>
+      <c r="H43" s="33"/>
+      <c r="I43" s="33"/>
+      <c r="J43" s="33"/>
+      <c r="K43" s="33"/>
+      <c r="L43" s="33"/>
+      <c r="M43" s="33"/>
+      <c r="N43" s="33"/>
+      <c r="O43" s="34"/>
+      <c r="P43" s="19"/>
+    </row>
+    <row r="44" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A44" s="19"/>
+      <c r="B44" s="42"/>
+      <c r="C44" s="43"/>
+      <c r="D44" s="33" t="s">
+        <v>215</v>
+      </c>
+      <c r="E44" s="33"/>
+      <c r="F44" s="33"/>
+      <c r="G44" s="33"/>
+      <c r="H44" s="33"/>
+      <c r="I44" s="33"/>
+      <c r="J44" s="33"/>
+      <c r="K44" s="33"/>
+      <c r="L44" s="33"/>
+      <c r="M44" s="33"/>
+      <c r="N44" s="33"/>
+      <c r="O44" s="34"/>
+      <c r="P44" s="19"/>
+    </row>
+    <row r="45" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A45" s="19"/>
+      <c r="B45" s="44"/>
+      <c r="C45" s="45"/>
+      <c r="D45" s="46" t="s">
+        <v>216</v>
+      </c>
+      <c r="E45" s="46"/>
+      <c r="F45" s="46"/>
+      <c r="G45" s="46"/>
+      <c r="H45" s="46"/>
+      <c r="I45" s="46"/>
+      <c r="J45" s="46"/>
+      <c r="K45" s="46"/>
+      <c r="L45" s="46"/>
+      <c r="M45" s="46"/>
+      <c r="N45" s="46"/>
+      <c r="O45" s="47"/>
+      <c r="P45" s="19"/>
+    </row>
+    <row r="46" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B46" s="44"/>
+      <c r="C46" s="45"/>
+      <c r="D46" s="45"/>
+      <c r="E46" s="48" t="s">
+        <v>209</v>
+      </c>
+      <c r="F46" s="48"/>
+      <c r="G46" s="48"/>
+      <c r="H46" s="48"/>
+      <c r="I46" s="48"/>
+      <c r="J46" s="48"/>
+      <c r="K46" s="48"/>
+      <c r="L46" s="48"/>
+      <c r="M46" s="48"/>
+      <c r="N46" s="48"/>
+      <c r="O46" s="49"/>
+    </row>
+    <row r="47" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B47" s="44"/>
+      <c r="C47" s="45"/>
+      <c r="D47" s="45"/>
+      <c r="E47" s="45"/>
+      <c r="F47" s="48" t="s">
+        <v>217</v>
+      </c>
+      <c r="G47" s="48"/>
+      <c r="H47" s="48"/>
+      <c r="I47" s="48"/>
+      <c r="J47" s="48"/>
+      <c r="K47" s="48"/>
+      <c r="L47" s="48"/>
+      <c r="M47" s="48"/>
+      <c r="N47" s="48"/>
+      <c r="O47" s="49"/>
+    </row>
+    <row r="48" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B48" s="44"/>
+      <c r="C48" s="45"/>
+      <c r="D48" s="45"/>
+      <c r="E48" s="45"/>
+      <c r="F48" s="48" t="s">
+        <v>218</v>
+      </c>
+      <c r="G48" s="48"/>
+      <c r="H48" s="48"/>
+      <c r="I48" s="48"/>
+      <c r="J48" s="48"/>
+      <c r="K48" s="48"/>
+      <c r="L48" s="48"/>
+      <c r="M48" s="48"/>
+      <c r="N48" s="48"/>
+      <c r="O48" s="49"/>
+    </row>
+    <row r="49" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B49" s="44"/>
+      <c r="C49" s="45"/>
+      <c r="D49" s="45"/>
+      <c r="E49" s="48" t="s">
+        <v>211</v>
+      </c>
+      <c r="F49" s="48"/>
+      <c r="G49" s="48"/>
+      <c r="H49" s="48"/>
+      <c r="I49" s="48"/>
+      <c r="J49" s="48"/>
+      <c r="K49" s="48"/>
+      <c r="L49" s="48"/>
+      <c r="M49" s="48"/>
+      <c r="N49" s="48"/>
+      <c r="O49" s="49"/>
+    </row>
+    <row r="50" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B50" s="44"/>
+      <c r="C50" s="45"/>
+      <c r="D50" s="48" t="s">
+        <v>215</v>
+      </c>
+      <c r="E50" s="48"/>
+      <c r="F50" s="48"/>
+      <c r="G50" s="48"/>
+      <c r="H50" s="48"/>
+      <c r="I50" s="48"/>
+      <c r="J50" s="48"/>
+      <c r="K50" s="48"/>
+      <c r="L50" s="48"/>
+      <c r="M50" s="48"/>
+      <c r="N50" s="48"/>
+      <c r="O50" s="49"/>
+    </row>
+    <row r="51" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B51" s="44"/>
+      <c r="C51" s="45"/>
+      <c r="D51" s="48" t="s">
+        <v>219</v>
+      </c>
+      <c r="E51" s="48"/>
+      <c r="F51" s="48"/>
+      <c r="G51" s="48"/>
+      <c r="H51" s="48"/>
+      <c r="I51" s="48"/>
+      <c r="J51" s="48"/>
+      <c r="K51" s="48"/>
+      <c r="L51" s="48"/>
+      <c r="M51" s="48"/>
+      <c r="N51" s="48"/>
+      <c r="O51" s="49"/>
+    </row>
+    <row r="52" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B52" s="44"/>
+      <c r="C52" s="45"/>
+      <c r="D52" s="45"/>
+      <c r="E52" s="48" t="s">
+        <v>214</v>
+      </c>
+      <c r="F52" s="48"/>
+      <c r="G52" s="48"/>
+      <c r="H52" s="48"/>
+      <c r="I52" s="48"/>
+      <c r="J52" s="48"/>
+      <c r="K52" s="48"/>
+      <c r="L52" s="48"/>
+      <c r="M52" s="48"/>
+      <c r="N52" s="48"/>
+      <c r="O52" s="49"/>
+    </row>
+    <row r="53" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B53" s="44"/>
+      <c r="C53" s="45"/>
+      <c r="D53" s="48" t="s">
+        <v>215</v>
+      </c>
+      <c r="E53" s="48"/>
+      <c r="F53" s="48"/>
+      <c r="G53" s="48"/>
+      <c r="H53" s="48"/>
+      <c r="I53" s="48"/>
+      <c r="J53" s="48"/>
+      <c r="K53" s="48"/>
+      <c r="L53" s="48"/>
+      <c r="M53" s="48"/>
+      <c r="N53" s="48"/>
+      <c r="O53" s="49"/>
+    </row>
+    <row r="54" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B54" s="44"/>
+      <c r="C54" s="48" t="s">
+        <v>220</v>
+      </c>
+      <c r="D54" s="48"/>
+      <c r="E54" s="48"/>
+      <c r="F54" s="48"/>
+      <c r="G54" s="48"/>
+      <c r="H54" s="48"/>
+      <c r="I54" s="48"/>
+      <c r="J54" s="48"/>
+      <c r="K54" s="48"/>
+      <c r="L54" s="48"/>
+      <c r="M54" s="48"/>
+      <c r="N54" s="48"/>
+      <c r="O54" s="49"/>
+    </row>
+    <row r="55" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B55" s="50" t="s">
+        <v>208</v>
+      </c>
+      <c r="C55" s="51"/>
+      <c r="D55" s="51"/>
+      <c r="E55" s="51"/>
+      <c r="F55" s="51"/>
+      <c r="G55" s="51"/>
+      <c r="H55" s="51"/>
+      <c r="I55" s="51"/>
+      <c r="J55" s="51"/>
+      <c r="K55" s="51"/>
+      <c r="L55" s="51"/>
+      <c r="M55" s="51"/>
+      <c r="N55" s="51"/>
+      <c r="O55" s="52"/>
+    </row>
+  </sheetData>
+  <mergeCells count="33">
+    <mergeCell ref="C54:O54"/>
+    <mergeCell ref="B55:O55"/>
+    <mergeCell ref="F48:O48"/>
+    <mergeCell ref="E49:O49"/>
+    <mergeCell ref="D50:O50"/>
+    <mergeCell ref="D51:O51"/>
+    <mergeCell ref="E52:O52"/>
+    <mergeCell ref="D53:O53"/>
+    <mergeCell ref="D42:O42"/>
+    <mergeCell ref="E43:O43"/>
+    <mergeCell ref="D44:O44"/>
+    <mergeCell ref="D45:O45"/>
+    <mergeCell ref="E46:O46"/>
+    <mergeCell ref="F47:O47"/>
+    <mergeCell ref="B36:O36"/>
+    <mergeCell ref="B37:O37"/>
+    <mergeCell ref="C38:O38"/>
+    <mergeCell ref="D39:O39"/>
+    <mergeCell ref="C40:O40"/>
+    <mergeCell ref="C41:O41"/>
+    <mergeCell ref="F28:O28"/>
+    <mergeCell ref="F29:O29"/>
+    <mergeCell ref="E30:O30"/>
+    <mergeCell ref="D31:O31"/>
+    <mergeCell ref="C32:O32"/>
+    <mergeCell ref="B33:O33"/>
+    <mergeCell ref="B21:O21"/>
+    <mergeCell ref="B22:O22"/>
+    <mergeCell ref="C23:O23"/>
+    <mergeCell ref="E26:O26"/>
+    <mergeCell ref="D25:O25"/>
+    <mergeCell ref="D24:O24"/>
+    <mergeCell ref="F27:O27"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A8C06EA-39BB-4C27-8A93-1068E7BAD1CB}">
+  <dimension ref="B46:Q116"/>
+  <sheetViews>
+    <sheetView topLeftCell="A115" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G122" sqref="G122"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="46" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B46" s="8" t="s">
+        <v>207</v>
+      </c>
+      <c r="C46" s="9"/>
+      <c r="D46" s="9"/>
+      <c r="E46" s="9"/>
+      <c r="F46" s="9"/>
+      <c r="G46" s="9"/>
+      <c r="H46" s="9"/>
+      <c r="I46" s="9"/>
+      <c r="J46" s="9"/>
+      <c r="K46" s="9"/>
+      <c r="L46" s="9"/>
+      <c r="M46" s="9"/>
+      <c r="N46" s="9"/>
+      <c r="O46" s="10"/>
+    </row>
+    <row r="47" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B47" s="39" t="s">
+        <v>221</v>
+      </c>
+      <c r="C47" s="40"/>
+      <c r="D47" s="40"/>
+      <c r="E47" s="40"/>
+      <c r="F47" s="40"/>
+      <c r="G47" s="40"/>
+      <c r="H47" s="40"/>
+      <c r="I47" s="40"/>
+      <c r="J47" s="40"/>
+      <c r="K47" s="40"/>
+      <c r="L47" s="40"/>
+      <c r="M47" s="40"/>
+      <c r="N47" s="40"/>
+      <c r="O47" s="41"/>
+    </row>
+    <row r="48" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B48" s="42"/>
+      <c r="C48" s="33" t="s">
+        <v>209</v>
+      </c>
+      <c r="D48" s="33"/>
+      <c r="E48" s="33"/>
+      <c r="F48" s="33"/>
+      <c r="G48" s="33"/>
+      <c r="H48" s="33"/>
+      <c r="I48" s="33"/>
+      <c r="J48" s="33"/>
+      <c r="K48" s="33"/>
+      <c r="L48" s="33"/>
+      <c r="M48" s="33"/>
+      <c r="N48" s="33"/>
+      <c r="O48" s="34"/>
+    </row>
+    <row r="49" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B49" s="42"/>
+      <c r="C49" s="53"/>
+      <c r="D49" s="56" t="s">
+        <v>222</v>
+      </c>
+      <c r="E49" s="56"/>
+      <c r="F49" s="56"/>
+      <c r="G49" s="56"/>
+      <c r="H49" s="56"/>
+      <c r="I49" s="56"/>
+      <c r="J49" s="56"/>
+      <c r="K49" s="56"/>
+      <c r="L49" s="56"/>
+      <c r="M49" s="56"/>
+      <c r="N49" s="56"/>
+      <c r="O49" s="57"/>
+      <c r="P49" s="54"/>
+      <c r="Q49" s="54"/>
+    </row>
+    <row r="50" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B50" s="42"/>
+      <c r="C50" s="53"/>
+      <c r="D50" s="53"/>
+      <c r="E50" s="56" t="s">
+        <v>223</v>
+      </c>
+      <c r="F50" s="56"/>
+      <c r="G50" s="56"/>
+      <c r="H50" s="56"/>
+      <c r="I50" s="56"/>
+      <c r="J50" s="56"/>
+      <c r="K50" s="56"/>
+      <c r="L50" s="56"/>
+      <c r="M50" s="56"/>
+      <c r="N50" s="56"/>
+      <c r="O50" s="57"/>
+      <c r="P50" s="54"/>
+      <c r="Q50" s="54"/>
+    </row>
+    <row r="51" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B51" s="42"/>
+      <c r="C51" s="53"/>
+      <c r="D51" s="53"/>
+      <c r="E51" s="56" t="s">
+        <v>224</v>
+      </c>
+      <c r="F51" s="56"/>
+      <c r="G51" s="56"/>
+      <c r="H51" s="56"/>
+      <c r="I51" s="56"/>
+      <c r="J51" s="56"/>
+      <c r="K51" s="56"/>
+      <c r="L51" s="56"/>
+      <c r="M51" s="56"/>
+      <c r="N51" s="56"/>
+      <c r="O51" s="57"/>
+      <c r="P51" s="54"/>
+      <c r="Q51" s="54"/>
+    </row>
+    <row r="52" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B52" s="42"/>
+      <c r="C52" s="53"/>
+      <c r="D52" s="53"/>
+      <c r="E52" s="53"/>
+      <c r="F52" s="56" t="s">
+        <v>225</v>
+      </c>
+      <c r="G52" s="56"/>
+      <c r="H52" s="56"/>
+      <c r="I52" s="56"/>
+      <c r="J52" s="56"/>
+      <c r="K52" s="56"/>
+      <c r="L52" s="56"/>
+      <c r="M52" s="56"/>
+      <c r="N52" s="56"/>
+      <c r="O52" s="57"/>
+      <c r="P52" s="54"/>
+      <c r="Q52" s="54"/>
+    </row>
+    <row r="53" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B53" s="42"/>
+      <c r="C53" s="53"/>
+      <c r="D53" s="53"/>
+      <c r="E53" s="53"/>
+      <c r="F53" s="53"/>
+      <c r="G53" s="56" t="s">
+        <v>226</v>
+      </c>
+      <c r="H53" s="56"/>
+      <c r="I53" s="56"/>
+      <c r="J53" s="56"/>
+      <c r="K53" s="56"/>
+      <c r="L53" s="56"/>
+      <c r="M53" s="56"/>
+      <c r="N53" s="56"/>
+      <c r="O53" s="57"/>
+      <c r="P53" s="54"/>
+      <c r="Q53" s="54"/>
+    </row>
+    <row r="54" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B54" s="42"/>
+      <c r="C54" s="53"/>
+      <c r="D54" s="53"/>
+      <c r="E54" s="53"/>
+      <c r="F54" s="53"/>
+      <c r="G54" s="56" t="s">
+        <v>227</v>
+      </c>
+      <c r="H54" s="56"/>
+      <c r="I54" s="56"/>
+      <c r="J54" s="56"/>
+      <c r="K54" s="56"/>
+      <c r="L54" s="56"/>
+      <c r="M54" s="56"/>
+      <c r="N54" s="56"/>
+      <c r="O54" s="57"/>
+      <c r="P54" s="54"/>
+      <c r="Q54" s="54"/>
+    </row>
+    <row r="55" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B55" s="44"/>
+      <c r="C55" s="55"/>
+      <c r="D55" s="55"/>
+      <c r="E55" s="55"/>
+      <c r="F55" s="55"/>
+      <c r="G55" s="58" t="s">
+        <v>228</v>
+      </c>
+      <c r="H55" s="58"/>
+      <c r="I55" s="58"/>
+      <c r="J55" s="58"/>
+      <c r="K55" s="58"/>
+      <c r="L55" s="58"/>
+      <c r="M55" s="58"/>
+      <c r="N55" s="58"/>
+      <c r="O55" s="59"/>
+      <c r="P55" s="54"/>
+      <c r="Q55" s="54"/>
+    </row>
+    <row r="56" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B56" s="44"/>
+      <c r="C56" s="55"/>
+      <c r="D56" s="55"/>
+      <c r="E56" s="55"/>
+      <c r="F56" s="55"/>
+      <c r="G56" s="58" t="s">
+        <v>227</v>
+      </c>
+      <c r="H56" s="58"/>
+      <c r="I56" s="58"/>
+      <c r="J56" s="58"/>
+      <c r="K56" s="58"/>
+      <c r="L56" s="58"/>
+      <c r="M56" s="58"/>
+      <c r="N56" s="58"/>
+      <c r="O56" s="59"/>
+      <c r="P56" s="54"/>
+      <c r="Q56" s="54"/>
+    </row>
+    <row r="57" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B57" s="44"/>
+      <c r="C57" s="55"/>
+      <c r="D57" s="55"/>
+      <c r="E57" s="55"/>
+      <c r="F57" s="55"/>
+      <c r="G57" s="58" t="s">
+        <v>229</v>
+      </c>
+      <c r="H57" s="58"/>
+      <c r="I57" s="58"/>
+      <c r="J57" s="58"/>
+      <c r="K57" s="58"/>
+      <c r="L57" s="58"/>
+      <c r="M57" s="58"/>
+      <c r="N57" s="58"/>
+      <c r="O57" s="59"/>
+      <c r="P57" s="54"/>
+      <c r="Q57" s="54"/>
+    </row>
+    <row r="58" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B58" s="44"/>
+      <c r="C58" s="55"/>
+      <c r="D58" s="55"/>
+      <c r="E58" s="55"/>
+      <c r="F58" s="55"/>
+      <c r="G58" s="58" t="s">
+        <v>230</v>
+      </c>
+      <c r="H58" s="58"/>
+      <c r="I58" s="58"/>
+      <c r="J58" s="58"/>
+      <c r="K58" s="58"/>
+      <c r="L58" s="58"/>
+      <c r="M58" s="58"/>
+      <c r="N58" s="58"/>
+      <c r="O58" s="59"/>
+      <c r="P58" s="54"/>
+      <c r="Q58" s="54"/>
+    </row>
+    <row r="59" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B59" s="44"/>
+      <c r="C59" s="55"/>
+      <c r="D59" s="55"/>
+      <c r="E59" s="55"/>
+      <c r="F59" s="55"/>
+      <c r="G59" s="58" t="s">
+        <v>231</v>
+      </c>
+      <c r="H59" s="58"/>
+      <c r="I59" s="58"/>
+      <c r="J59" s="58"/>
+      <c r="K59" s="58"/>
+      <c r="L59" s="58"/>
+      <c r="M59" s="58"/>
+      <c r="N59" s="58"/>
+      <c r="O59" s="59"/>
+      <c r="P59" s="54"/>
+      <c r="Q59" s="54"/>
+    </row>
+    <row r="60" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B60" s="44"/>
+      <c r="C60" s="55"/>
+      <c r="D60" s="55"/>
+      <c r="E60" s="55"/>
+      <c r="F60" s="55"/>
+      <c r="G60" s="58" t="s">
+        <v>230</v>
+      </c>
+      <c r="H60" s="58"/>
+      <c r="I60" s="58"/>
+      <c r="J60" s="58"/>
+      <c r="K60" s="58"/>
+      <c r="L60" s="58"/>
+      <c r="M60" s="58"/>
+      <c r="N60" s="58"/>
+      <c r="O60" s="59"/>
+      <c r="P60" s="54"/>
+      <c r="Q60" s="54"/>
+    </row>
+    <row r="61" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B61" s="44"/>
+      <c r="C61" s="55"/>
+      <c r="D61" s="55"/>
+      <c r="E61" s="55"/>
+      <c r="F61" s="58" t="s">
+        <v>232</v>
+      </c>
+      <c r="G61" s="58"/>
+      <c r="H61" s="58"/>
+      <c r="I61" s="58"/>
+      <c r="J61" s="58"/>
+      <c r="K61" s="58"/>
+      <c r="L61" s="58"/>
+      <c r="M61" s="58"/>
+      <c r="N61" s="58"/>
+      <c r="O61" s="59"/>
+      <c r="P61" s="54"/>
+      <c r="Q61" s="54"/>
+    </row>
+    <row r="62" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B62" s="44"/>
+      <c r="C62" s="55"/>
+      <c r="D62" s="55"/>
+      <c r="E62" s="58" t="s">
+        <v>233</v>
+      </c>
+      <c r="F62" s="58"/>
+      <c r="G62" s="58"/>
+      <c r="H62" s="58"/>
+      <c r="I62" s="58"/>
+      <c r="J62" s="58"/>
+      <c r="K62" s="58"/>
+      <c r="L62" s="58"/>
+      <c r="M62" s="58"/>
+      <c r="N62" s="58"/>
+      <c r="O62" s="59"/>
+      <c r="P62" s="54"/>
+      <c r="Q62" s="54"/>
+    </row>
+    <row r="63" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B63" s="44"/>
+      <c r="C63" s="55"/>
+      <c r="D63" s="55"/>
+      <c r="E63" s="58" t="s">
+        <v>234</v>
+      </c>
+      <c r="F63" s="58"/>
+      <c r="G63" s="58"/>
+      <c r="H63" s="58"/>
+      <c r="I63" s="58"/>
+      <c r="J63" s="58"/>
+      <c r="K63" s="58"/>
+      <c r="L63" s="58"/>
+      <c r="M63" s="58"/>
+      <c r="N63" s="58"/>
+      <c r="O63" s="59"/>
+      <c r="P63" s="54"/>
+      <c r="Q63" s="54"/>
+    </row>
+    <row r="64" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B64" s="44"/>
+      <c r="C64" s="45"/>
+      <c r="D64" s="45"/>
+      <c r="E64" s="45"/>
+      <c r="F64" s="48" t="s">
+        <v>235</v>
+      </c>
+      <c r="G64" s="48"/>
+      <c r="H64" s="48"/>
+      <c r="I64" s="48"/>
+      <c r="J64" s="48"/>
+      <c r="K64" s="48"/>
+      <c r="L64" s="48"/>
+      <c r="M64" s="48"/>
+      <c r="N64" s="48"/>
+      <c r="O64" s="49"/>
+    </row>
+    <row r="65" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B65" s="44"/>
+      <c r="C65" s="45"/>
+      <c r="D65" s="45"/>
+      <c r="E65" s="48" t="s">
+        <v>233</v>
+      </c>
+      <c r="F65" s="48"/>
+      <c r="G65" s="48"/>
+      <c r="H65" s="48"/>
+      <c r="I65" s="48"/>
+      <c r="J65" s="48"/>
+      <c r="K65" s="48"/>
+      <c r="L65" s="48"/>
+      <c r="M65" s="48"/>
+      <c r="N65" s="48"/>
+      <c r="O65" s="49"/>
+    </row>
+    <row r="66" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B66" s="35"/>
+      <c r="C66" s="36"/>
+      <c r="D66" s="37" t="s">
+        <v>236</v>
+      </c>
+      <c r="E66" s="37"/>
+      <c r="F66" s="37"/>
+      <c r="G66" s="37"/>
+      <c r="H66" s="37"/>
+      <c r="I66" s="37"/>
+      <c r="J66" s="37"/>
+      <c r="K66" s="37"/>
+      <c r="L66" s="37"/>
+      <c r="M66" s="37"/>
+      <c r="N66" s="37"/>
+      <c r="O66" s="38"/>
+    </row>
+    <row r="67" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B67" s="35"/>
+      <c r="C67" s="37" t="s">
+        <v>211</v>
+      </c>
+      <c r="D67" s="37"/>
+      <c r="E67" s="37"/>
+      <c r="F67" s="37"/>
+      <c r="G67" s="37"/>
+      <c r="H67" s="37"/>
+      <c r="I67" s="37"/>
+      <c r="J67" s="37"/>
+      <c r="K67" s="37"/>
+      <c r="L67" s="37"/>
+      <c r="M67" s="37"/>
+      <c r="N67" s="37"/>
+      <c r="O67" s="38"/>
+    </row>
+    <row r="68" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B68" s="35"/>
+      <c r="C68" s="37" t="s">
+        <v>212</v>
+      </c>
+      <c r="D68" s="37"/>
+      <c r="E68" s="37"/>
+      <c r="F68" s="37"/>
+      <c r="G68" s="37"/>
+      <c r="H68" s="37"/>
+      <c r="I68" s="37"/>
+      <c r="J68" s="37"/>
+      <c r="K68" s="37"/>
+      <c r="L68" s="37"/>
+      <c r="M68" s="37"/>
+      <c r="N68" s="37"/>
+      <c r="O68" s="38"/>
+    </row>
+    <row r="69" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B69" s="35"/>
+      <c r="C69" s="36"/>
+      <c r="D69" s="37" t="s">
+        <v>237</v>
+      </c>
+      <c r="E69" s="37"/>
+      <c r="F69" s="37"/>
+      <c r="G69" s="37"/>
+      <c r="H69" s="37"/>
+      <c r="I69" s="37"/>
+      <c r="J69" s="37"/>
+      <c r="K69" s="37"/>
+      <c r="L69" s="37"/>
+      <c r="M69" s="37"/>
+      <c r="N69" s="37"/>
+      <c r="O69" s="38"/>
+    </row>
+    <row r="70" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B70" s="35"/>
+      <c r="C70" s="36"/>
+      <c r="D70" s="37" t="s">
+        <v>238</v>
+      </c>
+      <c r="E70" s="37"/>
+      <c r="F70" s="37"/>
+      <c r="G70" s="37"/>
+      <c r="H70" s="37"/>
+      <c r="I70" s="37"/>
+      <c r="J70" s="37"/>
+      <c r="K70" s="37"/>
+      <c r="L70" s="37"/>
+      <c r="M70" s="37"/>
+      <c r="N70" s="37"/>
+      <c r="O70" s="38"/>
+    </row>
+    <row r="71" spans="2:15" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B71" s="35"/>
+      <c r="C71" s="36"/>
+      <c r="D71" s="36"/>
+      <c r="E71" s="36" t="s">
+        <v>214</v>
+      </c>
+      <c r="F71" s="36"/>
+      <c r="G71" s="36"/>
+      <c r="H71" s="36"/>
+      <c r="I71" s="36"/>
+      <c r="J71" s="36"/>
+      <c r="K71" s="36"/>
+      <c r="L71" s="36"/>
+      <c r="M71" s="36"/>
+      <c r="N71" s="36"/>
+      <c r="O71" s="60"/>
+    </row>
+    <row r="72" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B72" s="35"/>
+      <c r="C72" s="36"/>
+      <c r="D72" s="37" t="s">
+        <v>215</v>
+      </c>
+      <c r="E72" s="37"/>
+      <c r="F72" s="37"/>
+      <c r="G72" s="37"/>
+      <c r="H72" s="37"/>
+      <c r="I72" s="37"/>
+      <c r="J72" s="37"/>
+      <c r="K72" s="37"/>
+      <c r="L72" s="37"/>
+      <c r="M72" s="37"/>
+      <c r="N72" s="37"/>
+      <c r="O72" s="38"/>
+    </row>
+    <row r="73" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B73" s="35"/>
+      <c r="C73" s="36"/>
+      <c r="D73" s="37" t="s">
+        <v>237</v>
+      </c>
+      <c r="E73" s="37"/>
+      <c r="F73" s="37"/>
+      <c r="G73" s="37"/>
+      <c r="H73" s="37"/>
+      <c r="I73" s="37"/>
+      <c r="J73" s="37"/>
+      <c r="K73" s="37"/>
+      <c r="L73" s="37"/>
+      <c r="M73" s="37"/>
+      <c r="N73" s="37"/>
+      <c r="O73" s="38"/>
+    </row>
+    <row r="74" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B74" s="35"/>
+      <c r="C74" s="36"/>
+      <c r="D74" s="32" t="s">
+        <v>246</v>
+      </c>
+      <c r="E74" s="32"/>
+      <c r="F74" s="32"/>
+      <c r="G74" s="32"/>
+      <c r="H74" s="32"/>
+      <c r="I74" s="32"/>
+      <c r="J74" s="32"/>
+      <c r="K74" s="32"/>
+      <c r="L74" s="32"/>
+      <c r="M74" s="32"/>
+      <c r="N74" s="32"/>
+      <c r="O74" s="64"/>
+    </row>
+    <row r="75" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B75" s="35"/>
+      <c r="C75" s="36"/>
+      <c r="D75" s="65"/>
+      <c r="E75" s="32" t="s">
+        <v>209</v>
+      </c>
+      <c r="F75" s="32"/>
+      <c r="G75" s="32"/>
+      <c r="H75" s="32"/>
+      <c r="I75" s="32"/>
+      <c r="J75" s="32"/>
+      <c r="K75" s="32"/>
+      <c r="L75" s="32"/>
+      <c r="M75" s="32"/>
+      <c r="N75" s="32"/>
+      <c r="O75" s="64"/>
+    </row>
+    <row r="76" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B76" s="35"/>
+      <c r="C76" s="36"/>
+      <c r="D76" s="65"/>
+      <c r="E76" s="65"/>
+      <c r="F76" s="32" t="s">
+        <v>222</v>
+      </c>
+      <c r="G76" s="32"/>
+      <c r="H76" s="32"/>
+      <c r="I76" s="32"/>
+      <c r="J76" s="32"/>
+      <c r="K76" s="32"/>
+      <c r="L76" s="32"/>
+      <c r="M76" s="32"/>
+      <c r="N76" s="32"/>
+      <c r="O76" s="64"/>
+    </row>
+    <row r="77" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B77" s="35"/>
+      <c r="C77" s="36"/>
+      <c r="D77" s="65"/>
+      <c r="E77" s="65"/>
+      <c r="F77" s="65"/>
+      <c r="G77" s="32" t="s">
+        <v>247</v>
+      </c>
+      <c r="H77" s="32"/>
+      <c r="I77" s="32"/>
+      <c r="J77" s="32"/>
+      <c r="K77" s="32"/>
+      <c r="L77" s="32"/>
+      <c r="M77" s="32"/>
+      <c r="N77" s="32"/>
+      <c r="O77" s="64"/>
+    </row>
+    <row r="78" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B78" s="35"/>
+      <c r="C78" s="36"/>
+      <c r="D78" s="65"/>
+      <c r="E78" s="65"/>
+      <c r="F78" s="65"/>
+      <c r="G78" s="32" t="s">
+        <v>248</v>
+      </c>
+      <c r="H78" s="32"/>
+      <c r="I78" s="32"/>
+      <c r="J78" s="32"/>
+      <c r="K78" s="32"/>
+      <c r="L78" s="32"/>
+      <c r="M78" s="32"/>
+      <c r="N78" s="32"/>
+      <c r="O78" s="64"/>
+    </row>
+    <row r="79" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B79" s="35"/>
+      <c r="C79" s="36"/>
+      <c r="D79" s="65"/>
+      <c r="E79" s="65"/>
+      <c r="F79" s="65"/>
+      <c r="G79" s="32" t="s">
+        <v>249</v>
+      </c>
+      <c r="H79" s="32"/>
+      <c r="I79" s="32"/>
+      <c r="J79" s="32"/>
+      <c r="K79" s="32"/>
+      <c r="L79" s="32"/>
+      <c r="M79" s="32"/>
+      <c r="N79" s="32"/>
+      <c r="O79" s="64"/>
+    </row>
+    <row r="80" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B80" s="35"/>
+      <c r="C80" s="36"/>
+      <c r="D80" s="65"/>
+      <c r="E80" s="65"/>
+      <c r="F80" s="65"/>
+      <c r="G80" s="32" t="s">
+        <v>224</v>
+      </c>
+      <c r="H80" s="32"/>
+      <c r="I80" s="32"/>
+      <c r="J80" s="32"/>
+      <c r="K80" s="32"/>
+      <c r="L80" s="32"/>
+      <c r="M80" s="32"/>
+      <c r="N80" s="32"/>
+      <c r="O80" s="64"/>
+    </row>
+    <row r="81" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B81" s="35"/>
+      <c r="C81" s="36"/>
+      <c r="D81" s="65"/>
+      <c r="E81" s="65"/>
+      <c r="F81" s="65"/>
+      <c r="G81" s="65"/>
+      <c r="H81" s="32" t="s">
+        <v>225</v>
+      </c>
+      <c r="I81" s="32"/>
+      <c r="J81" s="32"/>
+      <c r="K81" s="32"/>
+      <c r="L81" s="32"/>
+      <c r="M81" s="32"/>
+      <c r="N81" s="32"/>
+      <c r="O81" s="64"/>
+    </row>
+    <row r="82" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B82" s="35"/>
+      <c r="C82" s="36"/>
+      <c r="D82" s="65"/>
+      <c r="E82" s="65"/>
+      <c r="F82" s="65"/>
+      <c r="G82" s="65"/>
+      <c r="H82" s="65"/>
+      <c r="I82" s="32" t="s">
+        <v>226</v>
+      </c>
+      <c r="J82" s="32"/>
+      <c r="K82" s="32"/>
+      <c r="L82" s="32"/>
+      <c r="M82" s="32"/>
+      <c r="N82" s="32"/>
+      <c r="O82" s="64"/>
+    </row>
+    <row r="83" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B83" s="35"/>
+      <c r="C83" s="36"/>
+      <c r="D83" s="65"/>
+      <c r="E83" s="65"/>
+      <c r="F83" s="65"/>
+      <c r="G83" s="65"/>
+      <c r="H83" s="65"/>
+      <c r="I83" s="32" t="s">
+        <v>250</v>
+      </c>
+      <c r="J83" s="32"/>
+      <c r="K83" s="32"/>
+      <c r="L83" s="32"/>
+      <c r="M83" s="32"/>
+      <c r="N83" s="32"/>
+      <c r="O83" s="64"/>
+    </row>
+    <row r="84" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B84" s="35"/>
+      <c r="C84" s="36"/>
+      <c r="D84" s="65"/>
+      <c r="E84" s="65"/>
+      <c r="F84" s="65"/>
+      <c r="G84" s="65"/>
+      <c r="H84" s="65"/>
+      <c r="I84" s="32" t="s">
+        <v>228</v>
+      </c>
+      <c r="J84" s="32"/>
+      <c r="K84" s="32"/>
+      <c r="L84" s="32"/>
+      <c r="M84" s="32"/>
+      <c r="N84" s="32"/>
+      <c r="O84" s="64"/>
+    </row>
+    <row r="85" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B85" s="35"/>
+      <c r="C85" s="36"/>
+      <c r="D85" s="65"/>
+      <c r="E85" s="65"/>
+      <c r="F85" s="65"/>
+      <c r="G85" s="65"/>
+      <c r="H85" s="65"/>
+      <c r="I85" s="32" t="s">
+        <v>250</v>
+      </c>
+      <c r="J85" s="32"/>
+      <c r="K85" s="32"/>
+      <c r="L85" s="32"/>
+      <c r="M85" s="32"/>
+      <c r="N85" s="32"/>
+      <c r="O85" s="64"/>
+    </row>
+    <row r="86" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B86" s="35"/>
+      <c r="C86" s="36"/>
+      <c r="D86" s="65"/>
+      <c r="E86" s="65"/>
+      <c r="F86" s="65"/>
+      <c r="G86" s="65"/>
+      <c r="H86" s="65"/>
+      <c r="I86" s="32" t="s">
+        <v>229</v>
+      </c>
+      <c r="J86" s="32"/>
+      <c r="K86" s="32"/>
+      <c r="L86" s="32"/>
+      <c r="M86" s="32"/>
+      <c r="N86" s="32"/>
+      <c r="O86" s="64"/>
+    </row>
+    <row r="87" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B87" s="35"/>
+      <c r="C87" s="36"/>
+      <c r="D87" s="65"/>
+      <c r="E87" s="65"/>
+      <c r="F87" s="65"/>
+      <c r="G87" s="65"/>
+      <c r="H87" s="65"/>
+      <c r="I87" s="32" t="s">
+        <v>251</v>
+      </c>
+      <c r="J87" s="32"/>
+      <c r="K87" s="32"/>
+      <c r="L87" s="32"/>
+      <c r="M87" s="32"/>
+      <c r="N87" s="32"/>
+      <c r="O87" s="64"/>
+    </row>
+    <row r="88" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B88" s="35"/>
+      <c r="C88" s="36"/>
+      <c r="D88" s="65"/>
+      <c r="E88" s="65"/>
+      <c r="F88" s="65"/>
+      <c r="G88" s="65"/>
+      <c r="H88" s="65"/>
+      <c r="I88" s="32" t="s">
+        <v>231</v>
+      </c>
+      <c r="J88" s="32"/>
+      <c r="K88" s="32"/>
+      <c r="L88" s="32"/>
+      <c r="M88" s="32"/>
+      <c r="N88" s="32"/>
+      <c r="O88" s="64"/>
+    </row>
+    <row r="89" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B89" s="35"/>
+      <c r="C89" s="36"/>
+      <c r="D89" s="65"/>
+      <c r="E89" s="65"/>
+      <c r="F89" s="65"/>
+      <c r="G89" s="65"/>
+      <c r="H89" s="65"/>
+      <c r="I89" s="32" t="s">
+        <v>230</v>
+      </c>
+      <c r="J89" s="32"/>
+      <c r="K89" s="32"/>
+      <c r="L89" s="32"/>
+      <c r="M89" s="32"/>
+      <c r="N89" s="32"/>
+      <c r="O89" s="64"/>
+    </row>
+    <row r="90" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B90" s="35"/>
+      <c r="C90" s="36"/>
+      <c r="D90" s="65"/>
+      <c r="E90" s="65"/>
+      <c r="F90" s="65"/>
+      <c r="G90" s="65"/>
+      <c r="H90" s="32" t="s">
+        <v>232</v>
+      </c>
+      <c r="I90" s="32"/>
+      <c r="J90" s="32"/>
+      <c r="K90" s="32"/>
+      <c r="L90" s="32"/>
+      <c r="M90" s="32"/>
+      <c r="N90" s="32"/>
+      <c r="O90" s="64"/>
+    </row>
+    <row r="91" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B91" s="35"/>
+      <c r="C91" s="36"/>
+      <c r="D91" s="65"/>
+      <c r="E91" s="65"/>
+      <c r="F91" s="65"/>
+      <c r="G91" s="32" t="s">
+        <v>233</v>
+      </c>
+      <c r="H91" s="32"/>
+      <c r="I91" s="32"/>
+      <c r="J91" s="32"/>
+      <c r="K91" s="32"/>
+      <c r="L91" s="32"/>
+      <c r="M91" s="32"/>
+      <c r="N91" s="32"/>
+      <c r="O91" s="64"/>
+    </row>
+    <row r="92" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B92" s="35"/>
+      <c r="C92" s="36"/>
+      <c r="D92" s="65"/>
+      <c r="E92" s="65"/>
+      <c r="F92" s="65"/>
+      <c r="G92" s="32" t="s">
+        <v>234</v>
+      </c>
+      <c r="H92" s="32"/>
+      <c r="I92" s="32"/>
+      <c r="J92" s="32"/>
+      <c r="K92" s="32"/>
+      <c r="L92" s="32"/>
+      <c r="M92" s="32"/>
+      <c r="N92" s="32"/>
+      <c r="O92" s="64"/>
+    </row>
+    <row r="93" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B93" s="35"/>
+      <c r="C93" s="36"/>
+      <c r="D93" s="65"/>
+      <c r="E93" s="65"/>
+      <c r="F93" s="65"/>
+      <c r="G93" s="65"/>
+      <c r="H93" s="32" t="s">
+        <v>252</v>
+      </c>
+      <c r="I93" s="32"/>
+      <c r="J93" s="32"/>
+      <c r="K93" s="32"/>
+      <c r="L93" s="32"/>
+      <c r="M93" s="32"/>
+      <c r="N93" s="32"/>
+      <c r="O93" s="64"/>
+    </row>
+    <row r="94" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B94" s="35"/>
+      <c r="C94" s="36"/>
+      <c r="D94" s="65"/>
+      <c r="E94" s="65"/>
+      <c r="F94" s="65"/>
+      <c r="G94" s="32" t="s">
+        <v>233</v>
+      </c>
+      <c r="H94" s="32"/>
+      <c r="I94" s="32"/>
+      <c r="J94" s="32"/>
+      <c r="K94" s="32"/>
+      <c r="L94" s="32"/>
+      <c r="M94" s="32"/>
+      <c r="N94" s="32"/>
+      <c r="O94" s="64"/>
+    </row>
+    <row r="95" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B95" s="35"/>
+      <c r="C95" s="36"/>
+      <c r="D95" s="65"/>
+      <c r="E95" s="65"/>
+      <c r="F95" s="65"/>
+      <c r="G95" s="65" t="s">
+        <v>253</v>
+      </c>
+      <c r="H95" s="65"/>
+      <c r="I95" s="65"/>
+      <c r="J95" s="65"/>
+      <c r="K95" s="65"/>
+      <c r="L95" s="65"/>
+      <c r="M95" s="65"/>
+      <c r="N95" s="65"/>
+      <c r="O95" s="66"/>
+    </row>
+    <row r="96" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B96" s="35"/>
+      <c r="C96" s="36"/>
+      <c r="D96" s="65"/>
+      <c r="E96" s="65"/>
+      <c r="F96" s="65"/>
+      <c r="G96" s="32" t="s">
+        <v>233</v>
+      </c>
+      <c r="H96" s="32"/>
+      <c r="I96" s="32"/>
+      <c r="J96" s="32"/>
+      <c r="K96" s="32"/>
+      <c r="L96" s="32"/>
+      <c r="M96" s="32"/>
+      <c r="N96" s="32"/>
+      <c r="O96" s="64"/>
+    </row>
+    <row r="97" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B97" s="35"/>
+      <c r="C97" s="36"/>
+      <c r="D97" s="65"/>
+      <c r="E97" s="65"/>
+      <c r="F97" s="32" t="s">
+        <v>236</v>
+      </c>
+      <c r="G97" s="32"/>
+      <c r="H97" s="32"/>
+      <c r="I97" s="32"/>
+      <c r="J97" s="32"/>
+      <c r="K97" s="32"/>
+      <c r="L97" s="32"/>
+      <c r="M97" s="32"/>
+      <c r="N97" s="32"/>
+      <c r="O97" s="64"/>
+    </row>
+    <row r="98" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B98" s="35"/>
+      <c r="C98" s="36"/>
+      <c r="D98" s="65"/>
+      <c r="E98" s="65"/>
+      <c r="F98" s="32" t="s">
+        <v>239</v>
+      </c>
+      <c r="G98" s="32"/>
+      <c r="H98" s="32"/>
+      <c r="I98" s="32"/>
+      <c r="J98" s="32"/>
+      <c r="K98" s="32"/>
+      <c r="L98" s="32"/>
+      <c r="M98" s="32"/>
+      <c r="N98" s="32"/>
+      <c r="O98" s="64"/>
+    </row>
+    <row r="99" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B99" s="35"/>
+      <c r="C99" s="36"/>
+      <c r="D99" s="65"/>
+      <c r="E99" s="65"/>
+      <c r="F99" s="65"/>
+      <c r="G99" s="32" t="s">
+        <v>240</v>
+      </c>
+      <c r="H99" s="32"/>
+      <c r="I99" s="32"/>
+      <c r="J99" s="32"/>
+      <c r="K99" s="32"/>
+      <c r="L99" s="32"/>
+      <c r="M99" s="32"/>
+      <c r="N99" s="32"/>
+      <c r="O99" s="64"/>
+    </row>
+    <row r="100" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B100" s="35"/>
+      <c r="C100" s="36"/>
+      <c r="D100" s="65"/>
+      <c r="E100" s="65"/>
+      <c r="F100" s="65"/>
+      <c r="G100" s="65"/>
+      <c r="H100" s="32" t="s">
+        <v>254</v>
+      </c>
+      <c r="I100" s="32"/>
+      <c r="J100" s="32"/>
+      <c r="K100" s="32"/>
+      <c r="L100" s="32"/>
+      <c r="M100" s="32"/>
+      <c r="N100" s="32"/>
+      <c r="O100" s="64"/>
+    </row>
+    <row r="101" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B101" s="35"/>
+      <c r="C101" s="36"/>
+      <c r="D101" s="65"/>
+      <c r="E101" s="65"/>
+      <c r="F101" s="65"/>
+      <c r="G101" s="65"/>
+      <c r="H101" s="65"/>
+      <c r="I101" s="32" t="s">
+        <v>241</v>
+      </c>
+      <c r="J101" s="32"/>
+      <c r="K101" s="32"/>
+      <c r="L101" s="32"/>
+      <c r="M101" s="32"/>
+      <c r="N101" s="32"/>
+      <c r="O101" s="64"/>
+    </row>
+    <row r="102" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B102" s="35"/>
+      <c r="C102" s="36"/>
+      <c r="D102" s="65"/>
+      <c r="E102" s="65"/>
+      <c r="F102" s="65"/>
+      <c r="G102" s="65"/>
+      <c r="H102" s="32" t="s">
+        <v>242</v>
+      </c>
+      <c r="I102" s="32"/>
+      <c r="J102" s="32"/>
+      <c r="K102" s="32"/>
+      <c r="L102" s="32"/>
+      <c r="M102" s="32"/>
+      <c r="N102" s="32"/>
+      <c r="O102" s="64"/>
+    </row>
+    <row r="103" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B103" s="35"/>
+      <c r="C103" s="36"/>
+      <c r="D103" s="65"/>
+      <c r="E103" s="65"/>
+      <c r="F103" s="65"/>
+      <c r="G103" s="32" t="s">
+        <v>243</v>
+      </c>
+      <c r="H103" s="32"/>
+      <c r="I103" s="32"/>
+      <c r="J103" s="32"/>
+      <c r="K103" s="32"/>
+      <c r="L103" s="32"/>
+      <c r="M103" s="32"/>
+      <c r="N103" s="32"/>
+      <c r="O103" s="64"/>
+    </row>
+    <row r="104" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B104" s="35"/>
+      <c r="C104" s="36"/>
+      <c r="D104" s="65"/>
+      <c r="E104" s="65"/>
+      <c r="F104" s="65"/>
+      <c r="G104" s="32" t="s">
+        <v>240</v>
+      </c>
+      <c r="H104" s="32"/>
+      <c r="I104" s="32"/>
+      <c r="J104" s="32"/>
+      <c r="K104" s="32"/>
+      <c r="L104" s="32"/>
+      <c r="M104" s="32"/>
+      <c r="N104" s="32"/>
+      <c r="O104" s="64"/>
+    </row>
+    <row r="105" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B105" s="35"/>
+      <c r="C105" s="36"/>
+      <c r="D105" s="65"/>
+      <c r="E105" s="65"/>
+      <c r="F105" s="65"/>
+      <c r="G105" s="65"/>
+      <c r="H105" s="32" t="s">
+        <v>254</v>
+      </c>
+      <c r="I105" s="32"/>
+      <c r="J105" s="32"/>
+      <c r="K105" s="32"/>
+      <c r="L105" s="32"/>
+      <c r="M105" s="32"/>
+      <c r="N105" s="32"/>
+      <c r="O105" s="64"/>
+    </row>
+    <row r="106" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B106" s="35"/>
+      <c r="C106" s="36"/>
+      <c r="D106" s="65"/>
+      <c r="E106" s="65"/>
+      <c r="F106" s="65"/>
+      <c r="G106" s="65"/>
+      <c r="H106" s="65"/>
+      <c r="I106" s="32" t="s">
+        <v>244</v>
+      </c>
+      <c r="J106" s="32"/>
+      <c r="K106" s="32"/>
+      <c r="L106" s="32"/>
+      <c r="M106" s="32"/>
+      <c r="N106" s="32"/>
+      <c r="O106" s="64"/>
+    </row>
+    <row r="107" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B107" s="35"/>
+      <c r="C107" s="36"/>
+      <c r="D107" s="65"/>
+      <c r="E107" s="65"/>
+      <c r="F107" s="65"/>
+      <c r="G107" s="65"/>
+      <c r="H107" s="32" t="s">
+        <v>242</v>
+      </c>
+      <c r="I107" s="32"/>
+      <c r="J107" s="32"/>
+      <c r="K107" s="32"/>
+      <c r="L107" s="32"/>
+      <c r="M107" s="32"/>
+      <c r="N107" s="32"/>
+      <c r="O107" s="64"/>
+    </row>
+    <row r="108" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B108" s="35"/>
+      <c r="C108" s="36"/>
+      <c r="D108" s="65"/>
+      <c r="E108" s="65"/>
+      <c r="F108" s="65"/>
+      <c r="G108" s="32" t="s">
+        <v>243</v>
+      </c>
+      <c r="H108" s="32"/>
+      <c r="I108" s="32"/>
+      <c r="J108" s="32"/>
+      <c r="K108" s="32"/>
+      <c r="L108" s="32"/>
+      <c r="M108" s="32"/>
+      <c r="N108" s="32"/>
+      <c r="O108" s="64"/>
+    </row>
+    <row r="109" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B109" s="35"/>
+      <c r="C109" s="36"/>
+      <c r="D109" s="65"/>
+      <c r="E109" s="65"/>
+      <c r="F109" s="32" t="s">
+        <v>245</v>
+      </c>
+      <c r="G109" s="32"/>
+      <c r="H109" s="32"/>
+      <c r="I109" s="32"/>
+      <c r="J109" s="32"/>
+      <c r="K109" s="32"/>
+      <c r="L109" s="32"/>
+      <c r="M109" s="32"/>
+      <c r="N109" s="32"/>
+      <c r="O109" s="64"/>
+    </row>
+    <row r="110" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B110" s="35"/>
+      <c r="C110" s="36"/>
+      <c r="D110" s="65"/>
+      <c r="E110" s="32" t="s">
+        <v>211</v>
+      </c>
+      <c r="F110" s="32"/>
+      <c r="G110" s="32"/>
+      <c r="H110" s="32"/>
+      <c r="I110" s="32"/>
+      <c r="J110" s="32"/>
+      <c r="K110" s="32"/>
+      <c r="L110" s="32"/>
+      <c r="M110" s="32"/>
+      <c r="N110" s="32"/>
+      <c r="O110" s="64"/>
+    </row>
+    <row r="111" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B111" s="35"/>
+      <c r="C111" s="36"/>
+      <c r="D111" s="32" t="s">
+        <v>215</v>
+      </c>
+      <c r="E111" s="32"/>
+      <c r="F111" s="32"/>
+      <c r="G111" s="32"/>
+      <c r="H111" s="32"/>
+      <c r="I111" s="32"/>
+      <c r="J111" s="32"/>
+      <c r="K111" s="32"/>
+      <c r="L111" s="32"/>
+      <c r="M111" s="32"/>
+      <c r="N111" s="32"/>
+      <c r="O111" s="64"/>
+    </row>
+    <row r="112" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B112" s="35"/>
+      <c r="C112" s="36"/>
+      <c r="D112" s="37" t="s">
+        <v>255</v>
+      </c>
+      <c r="E112" s="37"/>
+      <c r="F112" s="37"/>
+      <c r="G112" s="37"/>
+      <c r="H112" s="37"/>
+      <c r="I112" s="37"/>
+      <c r="J112" s="37"/>
+      <c r="K112" s="37"/>
+      <c r="L112" s="37"/>
+      <c r="M112" s="37"/>
+      <c r="N112" s="37"/>
+      <c r="O112" s="38"/>
+    </row>
+    <row r="113" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B113" s="35"/>
+      <c r="C113" s="36"/>
+      <c r="D113" s="36"/>
+      <c r="E113" s="37" t="s">
+        <v>214</v>
+      </c>
+      <c r="F113" s="37"/>
+      <c r="G113" s="37"/>
+      <c r="H113" s="37"/>
+      <c r="I113" s="37"/>
+      <c r="J113" s="37"/>
+      <c r="K113" s="37"/>
+      <c r="L113" s="37"/>
+      <c r="M113" s="37"/>
+      <c r="N113" s="37"/>
+      <c r="O113" s="38"/>
+    </row>
+    <row r="114" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B114" s="35"/>
+      <c r="C114" s="36"/>
+      <c r="D114" s="37" t="s">
+        <v>215</v>
+      </c>
+      <c r="E114" s="37"/>
+      <c r="F114" s="37"/>
+      <c r="G114" s="37"/>
+      <c r="H114" s="37"/>
+      <c r="I114" s="37"/>
+      <c r="J114" s="37"/>
+      <c r="K114" s="37"/>
+      <c r="L114" s="37"/>
+      <c r="M114" s="37"/>
+      <c r="N114" s="37"/>
+      <c r="O114" s="38"/>
+    </row>
+    <row r="115" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B115" s="35"/>
+      <c r="C115" s="37" t="s">
+        <v>220</v>
+      </c>
+      <c r="D115" s="37"/>
+      <c r="E115" s="37"/>
+      <c r="F115" s="37"/>
+      <c r="G115" s="37"/>
+      <c r="H115" s="37"/>
+      <c r="I115" s="37"/>
+      <c r="J115" s="37"/>
+      <c r="K115" s="37"/>
+      <c r="L115" s="37"/>
+      <c r="M115" s="37"/>
+      <c r="N115" s="37"/>
+      <c r="O115" s="38"/>
+    </row>
+    <row r="116" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B116" s="61" t="s">
+        <v>208</v>
+      </c>
+      <c r="C116" s="62"/>
+      <c r="D116" s="62"/>
+      <c r="E116" s="62"/>
+      <c r="F116" s="62"/>
+      <c r="G116" s="62"/>
+      <c r="H116" s="62"/>
+      <c r="I116" s="62"/>
+      <c r="J116" s="62"/>
+      <c r="K116" s="62"/>
+      <c r="L116" s="62"/>
+      <c r="M116" s="62"/>
+      <c r="N116" s="62"/>
+      <c r="O116" s="63"/>
+    </row>
+  </sheetData>
+  <mergeCells count="69">
+    <mergeCell ref="B116:O116"/>
+    <mergeCell ref="E113:O113"/>
+    <mergeCell ref="D114:O114"/>
+    <mergeCell ref="C115:O115"/>
+    <mergeCell ref="H107:O107"/>
+    <mergeCell ref="G108:O108"/>
+    <mergeCell ref="F109:O109"/>
+    <mergeCell ref="D111:O111"/>
+    <mergeCell ref="E110:O110"/>
+    <mergeCell ref="D112:O112"/>
+    <mergeCell ref="I101:O101"/>
+    <mergeCell ref="H102:O102"/>
+    <mergeCell ref="G103:O103"/>
+    <mergeCell ref="G104:O104"/>
+    <mergeCell ref="H105:O105"/>
+    <mergeCell ref="I106:O106"/>
+    <mergeCell ref="G94:O94"/>
+    <mergeCell ref="G96:O96"/>
+    <mergeCell ref="F97:O97"/>
+    <mergeCell ref="F98:O98"/>
+    <mergeCell ref="G99:O99"/>
+    <mergeCell ref="H100:O100"/>
+    <mergeCell ref="I88:O88"/>
+    <mergeCell ref="I89:O89"/>
+    <mergeCell ref="H90:O90"/>
+    <mergeCell ref="G91:O91"/>
+    <mergeCell ref="G92:O92"/>
+    <mergeCell ref="H93:O93"/>
+    <mergeCell ref="I82:O82"/>
+    <mergeCell ref="I83:O83"/>
+    <mergeCell ref="I84:O84"/>
+    <mergeCell ref="I85:O85"/>
+    <mergeCell ref="I86:O86"/>
+    <mergeCell ref="I87:O87"/>
+    <mergeCell ref="F76:O76"/>
+    <mergeCell ref="G77:O77"/>
+    <mergeCell ref="G78:O78"/>
+    <mergeCell ref="G79:O79"/>
+    <mergeCell ref="G80:O80"/>
+    <mergeCell ref="H81:O81"/>
+    <mergeCell ref="D72:O72"/>
+    <mergeCell ref="D73:O73"/>
+    <mergeCell ref="D74:O74"/>
+    <mergeCell ref="E75:O75"/>
+    <mergeCell ref="D69:O69"/>
+    <mergeCell ref="D70:O70"/>
+    <mergeCell ref="E63:O63"/>
+    <mergeCell ref="F64:O64"/>
+    <mergeCell ref="E65:O65"/>
+    <mergeCell ref="D66:O66"/>
+    <mergeCell ref="C67:O67"/>
+    <mergeCell ref="C68:O68"/>
+    <mergeCell ref="E50:O50"/>
+    <mergeCell ref="E51:O51"/>
+    <mergeCell ref="F52:O52"/>
+    <mergeCell ref="G53:O53"/>
+    <mergeCell ref="G54:O54"/>
+    <mergeCell ref="G55:O55"/>
+    <mergeCell ref="G56:O56"/>
+    <mergeCell ref="G57:O57"/>
+    <mergeCell ref="E62:O62"/>
+    <mergeCell ref="G58:O58"/>
+    <mergeCell ref="G59:O59"/>
+    <mergeCell ref="G60:O60"/>
+    <mergeCell ref="F61:O61"/>
+    <mergeCell ref="B46:O46"/>
+    <mergeCell ref="B47:O47"/>
+    <mergeCell ref="C48:O48"/>
+    <mergeCell ref="D49:O49"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>